--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2442415.576633113</v>
+        <v>-2444736.649711207</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5625041.408425028</v>
+        <v>5625041.408425026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>223.3277792152583</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>52.62407629885327</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>75.29463771768771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -941,19 +941,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>68.21015448122992</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>67.82804216234578</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12.96143333295789</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>25.17354161800006</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,16 +1218,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>121.7956965137215</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>107.0462203894556</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>411.3630412092429</v>
       </c>
       <c r="H11" t="n">
-        <v>299.1273873230492</v>
+        <v>299.1273873230491</v>
       </c>
       <c r="I11" t="n">
-        <v>58.59074773750049</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.2442400157279</v>
+        <v>119.2442400157278</v>
       </c>
       <c r="T11" t="n">
         <v>205.8498289850884</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0304772033637</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I12" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.94038830264526</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>102.3055863904067</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S13" t="n">
         <v>193.2189102119588</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>170.0504990216369</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.363041209243</v>
+        <v>411.3630412092429</v>
       </c>
       <c r="H14" t="n">
-        <v>299.1273873230492</v>
+        <v>299.1273873230491</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5907477374986</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.2442400157279</v>
+        <v>119.2442400157278</v>
       </c>
       <c r="T14" t="n">
-        <v>205.8498289850885</v>
+        <v>205.8498289850884</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0304772033652</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I15" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>49.55773786846445</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S16" t="n">
         <v>193.2189102119588</v>
       </c>
       <c r="T16" t="n">
-        <v>220.3947739469271</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2226359673672</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.6240317443271</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.363041209243</v>
+        <v>411.3630412092429</v>
       </c>
       <c r="H17" t="n">
-        <v>299.1273873230492</v>
+        <v>299.1273873230491</v>
       </c>
       <c r="I17" t="n">
-        <v>58.59074773749859</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.2442400157279</v>
+        <v>119.2442400157278</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8498289850885</v>
+        <v>205.8498289850886</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0304772033652</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I18" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>73.73039654688577</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.6240317443271</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.363041209243</v>
@@ -2099,7 +2099,7 @@
         <v>299.1273873230492</v>
       </c>
       <c r="I20" t="n">
-        <v>58.59074773749859</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>205.8498289850885</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0304772033652</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I21" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T22" t="n">
         <v>220.3947739469271</v>
@@ -2296,16 +2296,16 @@
         <v>286.2226359673672</v>
       </c>
       <c r="V22" t="n">
-        <v>227.5336624026953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6240317443269</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2327,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.363041209243</v>
+        <v>411.3630412092429</v>
       </c>
       <c r="H23" t="n">
-        <v>299.1273873230492</v>
+        <v>299.1273873230491</v>
       </c>
       <c r="I23" t="n">
-        <v>58.59074773749859</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.2442400157279</v>
+        <v>119.2442400157274</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8498289850885</v>
+        <v>205.8498289850884</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0304772033652</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I24" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.91424524631221</v>
       </c>
       <c r="S25" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.3947739469271</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2226359673672</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.6240317443271</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I26" t="n">
-        <v>58.59074773749853</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I27" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.3055863904067</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S28" t="n">
         <v>193.2189102119588</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.6240317443271</v>
+        <v>104.7615149823282</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I29" t="n">
-        <v>58.59074773749853</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I30" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.3055863904067</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S31" t="n">
-        <v>193.2189102119588</v>
+        <v>10.51996818282977</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3947739469271</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.43003417766217</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I32" t="n">
-        <v>58.59074773749853</v>
+        <v>58.59074773749856</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.2442400157278</v>
+        <v>119.2442400157274</v>
       </c>
       <c r="T32" t="n">
         <v>205.8498289850884</v>
@@ -3126,7 +3126,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I33" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D34" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346264</v>
       </c>
       <c r="E34" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181946</v>
       </c>
       <c r="F34" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818153</v>
       </c>
       <c r="G34" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H34" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553119</v>
       </c>
       <c r="I34" t="n">
-        <v>46.37678291565691</v>
+        <v>46.37678291565695</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.90430413480578</v>
+        <v>41.9043041348055</v>
       </c>
       <c r="S34" t="n">
-        <v>137.290106737209</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T34" t="n">
         <v>164.4659704721774</v>
@@ -3253,7 +3253,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.655849877345</v>
+        <v>162.6558498773451</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>326.8050381887309</v>
+        <v>326.8050381887308</v>
       </c>
       <c r="C35" t="n">
         <v>309.3440882962578</v>
@@ -3272,19 +3272,19 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E35" t="n">
-        <v>326.0015665975121</v>
+        <v>326.001566597512</v>
       </c>
       <c r="F35" t="n">
         <v>350.9472422669617</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4342377344932</v>
+        <v>355.4342377344931</v>
       </c>
       <c r="H35" t="n">
-        <v>243.1985838482994</v>
+        <v>243.1985838482993</v>
       </c>
       <c r="I35" t="n">
-        <v>2.661944262748797</v>
+        <v>2.661944262748804</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.31543654097808</v>
+        <v>63.31543654097807</v>
       </c>
       <c r="T35" t="n">
         <v>149.9210255103387</v>
@@ -3323,16 +3323,16 @@
         <v>195.1016737286154</v>
       </c>
       <c r="V35" t="n">
-        <v>271.8234549953852</v>
+        <v>271.8234549953851</v>
       </c>
       <c r="W35" t="n">
-        <v>293.3121652426633</v>
+        <v>293.3121652426632</v>
       </c>
       <c r="X35" t="n">
         <v>313.8022972037193</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.3091351813039</v>
+        <v>330.3091351813038</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I36" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.9031767071876</v>
+        <v>123.9031767071875</v>
       </c>
       <c r="C37" t="n">
         <v>111.3180176238781</v>
       </c>
       <c r="D37" t="n">
-        <v>92.68666954346261</v>
+        <v>92.6866695434626</v>
       </c>
       <c r="E37" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181941</v>
       </c>
       <c r="F37" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818149</v>
       </c>
       <c r="G37" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H37" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553114</v>
       </c>
       <c r="I37" t="n">
-        <v>46.37678291565692</v>
+        <v>46.3767829156569</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90430413480548</v>
+        <v>41.90430413480546</v>
       </c>
       <c r="S37" t="n">
-        <v>137.2901067372091</v>
+        <v>137.290106737209</v>
       </c>
       <c r="T37" t="n">
         <v>164.4659704721774</v>
@@ -3481,10 +3481,10 @@
         <v>230.2938324926175</v>
       </c>
       <c r="V37" t="n">
-        <v>196.2088398490783</v>
+        <v>196.2088398490782</v>
       </c>
       <c r="W37" t="n">
-        <v>230.5941948618413</v>
+        <v>230.5941948618412</v>
       </c>
       <c r="X37" t="n">
         <v>169.7808519142874</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>326.8050381887309</v>
+        <v>326.8050381887308</v>
       </c>
       <c r="C38" t="n">
         <v>309.3440882962578</v>
@@ -3509,7 +3509,7 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E38" t="n">
-        <v>326.0015665975121</v>
+        <v>326.001566597512</v>
       </c>
       <c r="F38" t="n">
         <v>350.9472422669617</v>
@@ -3521,7 +3521,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I38" t="n">
-        <v>2.661944262748797</v>
+        <v>2.661944262748818</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>271.8234549953852</v>
       </c>
       <c r="W38" t="n">
-        <v>293.3121652426633</v>
+        <v>293.3121652426632</v>
       </c>
       <c r="X38" t="n">
         <v>313.8022972037193</v>
@@ -3600,7 +3600,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I39" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>90.58624660553116</v>
       </c>
       <c r="I40" t="n">
-        <v>46.37678291565691</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>41.90430413480547</v>
       </c>
       <c r="S40" t="n">
-        <v>137.290106737209</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T40" t="n">
         <v>164.4659704721774</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>326.8050381887309</v>
+        <v>326.8050381887308</v>
       </c>
       <c r="C41" t="n">
         <v>309.3440882962578</v>
       </c>
       <c r="D41" t="n">
-        <v>298.7542381459334</v>
+        <v>298.7542381459332</v>
       </c>
       <c r="E41" t="n">
-        <v>326.0015665975121</v>
+        <v>326.001566597512</v>
       </c>
       <c r="F41" t="n">
         <v>350.9472422669617</v>
       </c>
       <c r="G41" t="n">
-        <v>355.4342377344932</v>
+        <v>355.4342377344931</v>
       </c>
       <c r="H41" t="n">
         <v>243.1985838482994</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.3154365409781</v>
+        <v>63.31543654097808</v>
       </c>
       <c r="T41" t="n">
         <v>149.9210255103387</v>
@@ -3800,13 +3800,13 @@
         <v>271.8234549953852</v>
       </c>
       <c r="W41" t="n">
-        <v>293.3121652426633</v>
+        <v>293.3121652426632</v>
       </c>
       <c r="X41" t="n">
         <v>313.8022972037193</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.3091351813039</v>
+        <v>330.3091351813041</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I42" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D43" t="n">
-        <v>92.68666954346264</v>
+        <v>92.68666954346261</v>
       </c>
       <c r="E43" t="n">
-        <v>90.50515917181946</v>
+        <v>90.50515917181943</v>
       </c>
       <c r="F43" t="n">
-        <v>89.49224454818153</v>
+        <v>89.4922445481815</v>
       </c>
       <c r="G43" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H43" t="n">
-        <v>90.58624660553119</v>
+        <v>90.58624660553116</v>
       </c>
       <c r="I43" t="n">
-        <v>46.37678291565695</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90430413480551</v>
+        <v>41.90430413480547</v>
       </c>
       <c r="S43" t="n">
         <v>137.2901067372091</v>
@@ -3964,7 +3964,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.6558498773451</v>
+        <v>162.655849877345</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.8050381887309</v>
+        <v>326.8050381887308</v>
       </c>
       <c r="C44" t="n">
         <v>309.3440882962578</v>
@@ -3983,19 +3983,19 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E44" t="n">
-        <v>326.0015665975121</v>
+        <v>326.001566597512</v>
       </c>
       <c r="F44" t="n">
         <v>350.9472422669617</v>
       </c>
       <c r="G44" t="n">
-        <v>355.4342377344932</v>
+        <v>355.4342377344931</v>
       </c>
       <c r="H44" t="n">
         <v>243.1985838482994</v>
       </c>
       <c r="I44" t="n">
-        <v>2.661944262748797</v>
+        <v>2.66194426274879</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.31543654097808</v>
+        <v>63.31543654097807</v>
       </c>
       <c r="T44" t="n">
         <v>149.9210255103387</v>
       </c>
       <c r="U44" t="n">
-        <v>195.1016737286154</v>
+        <v>195.1016737286153</v>
       </c>
       <c r="V44" t="n">
-        <v>271.8234549953852</v>
+        <v>271.8234549953851</v>
       </c>
       <c r="W44" t="n">
-        <v>293.3121652426633</v>
+        <v>293.3121652426632</v>
       </c>
       <c r="X44" t="n">
         <v>313.8022972037193</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.3091351813039</v>
+        <v>330.3091351813038</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I45" t="n">
-        <v>16.82120143337931</v>
+        <v>16.82120143337933</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.9031767071876</v>
+        <v>123.9031767071875</v>
       </c>
       <c r="C46" t="n">
         <v>111.3180176238781</v>
       </c>
       <c r="D46" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346259</v>
       </c>
       <c r="E46" t="n">
-        <v>90.50515917181943</v>
+        <v>90.5051591718194</v>
       </c>
       <c r="F46" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818147</v>
       </c>
       <c r="G46" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H46" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553113</v>
       </c>
       <c r="I46" t="n">
-        <v>46.37678291565692</v>
+        <v>46.3767829156569</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90430413480548</v>
+        <v>41.90430413480546</v>
       </c>
       <c r="S46" t="n">
-        <v>137.2901067372091</v>
+        <v>137.290106737209</v>
       </c>
       <c r="T46" t="n">
         <v>164.4659704721774</v>
@@ -4192,10 +4192,10 @@
         <v>230.2938324926175</v>
       </c>
       <c r="V46" t="n">
-        <v>196.2088398490783</v>
+        <v>196.2088398490782</v>
       </c>
       <c r="W46" t="n">
-        <v>230.5941948618413</v>
+        <v>230.5941948618412</v>
       </c>
       <c r="X46" t="n">
         <v>169.7808519142874</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>269.6754205035162</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>269.6754205035162</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>269.6754205035162</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>269.6754205035162</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X2" t="n">
-        <v>513.1241971476163</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y2" t="n">
-        <v>269.6754205035162</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.5465265007123</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="C3" t="n">
-        <v>304.5465265007123</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D3" t="n">
-        <v>304.5465265007123</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>910.9015228855319</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>910.9015228855319</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>910.9015228855319</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4532163200711</v>
+        <v>910.9015228855319</v>
       </c>
       <c r="V3" t="n">
-        <v>588.4532163200711</v>
+        <v>910.9015228855319</v>
       </c>
       <c r="W3" t="n">
-        <v>588.4532163200711</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="X3" t="n">
-        <v>380.6017161145382</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.5465265007123</v>
+        <v>667.4527462414319</v>
       </c>
     </row>
     <row r="4">
@@ -4510,13 +4510,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>297.2027203719481</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>297.2027203719481</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="W5" t="n">
-        <v>297.2027203719481</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="X5" t="n">
-        <v>297.2027203719481</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284.787934186969</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>353.3011080883284</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W6" t="n">
-        <v>284.787934186969</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X6" t="n">
-        <v>284.787934186969</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y6" t="n">
-        <v>284.787934186969</v>
+        <v>448.1543063486022</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>753.253405673024</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>72.23626279480629</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>56.77895217345775</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>56.77895217345775</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>753.253405673024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>466.4486707798429</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C9" t="n">
-        <v>291.9956414987158</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D9" t="n">
-        <v>143.0612318374646</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4890,16 +4890,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="W9" t="n">
-        <v>634.6640077999109</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="X9" t="n">
-        <v>634.6640077999109</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="Y9" t="n">
-        <v>634.6640077999109</v>
+        <v>754.7601307206374</v>
       </c>
     </row>
     <row r="10">
@@ -4996,7 +4996,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
         <v>41.77557929797318</v>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.113933790199</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.151416849787</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.885718243037</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.097465644793</v>
+        <v>1284.09746564479</v>
       </c>
       <c r="F11" t="n">
-        <v>873.1115608551851</v>
+        <v>873.1115608551829</v>
       </c>
       <c r="G11" t="n">
-        <v>457.5933374115053</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H11" t="n">
-        <v>155.4444613276173</v>
+        <v>155.4444613276153</v>
       </c>
       <c r="I11" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J11" t="n">
-        <v>415.4651227431204</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K11" t="n">
-        <v>693.7088727395128</v>
+        <v>1014.612831184966</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.23746744041</v>
+        <v>1396.700568908834</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.07153168558</v>
+        <v>2298.534633154004</v>
       </c>
       <c r="N11" t="n">
-        <v>3166.86621638291</v>
+        <v>3200.329317851335</v>
       </c>
       <c r="O11" t="n">
-        <v>3973.217727425352</v>
+        <v>4006.680828893775</v>
       </c>
       <c r="P11" t="n">
-        <v>4305.164982501233</v>
+        <v>4515.356823254538</v>
       </c>
       <c r="Q11" t="n">
-        <v>4716.462640937216</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.094392769726</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S11" t="n">
         <v>4692.645665481112</v>
@@ -5072,19 +5072,19 @@
         <v>4484.716545294154</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.150406704897</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.087519361327</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.318864091213</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.853105830133</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.713773854321</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I12" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J12" t="n">
         <v>292.6837681104437</v>
       </c>
       <c r="K12" t="n">
-        <v>526.8967564225479</v>
+        <v>493.2003055554644</v>
       </c>
       <c r="L12" t="n">
-        <v>842.8385274502001</v>
+        <v>809.1420765831165</v>
       </c>
       <c r="M12" t="n">
-        <v>1230.884540401125</v>
+        <v>1197.188089534041</v>
       </c>
       <c r="N12" t="n">
-        <v>1643.60962156366</v>
+        <v>1609.913170696576</v>
       </c>
       <c r="O12" t="n">
-        <v>1998.952643239181</v>
+        <v>1965.256192372097</v>
       </c>
       <c r="P12" t="n">
-        <v>2264.813679484683</v>
+        <v>2234.402543056032</v>
       </c>
       <c r="Q12" t="n">
-        <v>2600.592059963695</v>
+        <v>2570.180923535044</v>
       </c>
       <c r="R12" t="n">
         <v>2600.592059963695</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>682.4717933717382</v>
+        <v>666.5667799299562</v>
       </c>
       <c r="C13" t="n">
-        <v>513.5356104438313</v>
+        <v>497.6305970020493</v>
       </c>
       <c r="D13" t="n">
-        <v>513.5356104438313</v>
+        <v>347.5139575897135</v>
       </c>
       <c r="E13" t="n">
-        <v>365.6225168614382</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="F13" t="n">
-        <v>218.7325693635278</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="G13" t="n">
-        <v>218.7325693635278</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="H13" t="n">
-        <v>199.6008640073205</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="I13" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J13" t="n">
-        <v>127.5287784303311</v>
+        <v>127.528778430331</v>
       </c>
       <c r="K13" t="n">
-        <v>308.7467211677959</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L13" t="n">
-        <v>596.1697313207188</v>
+        <v>596.1697313207187</v>
       </c>
       <c r="M13" t="n">
-        <v>909.6061189417569</v>
+        <v>909.6061189417568</v>
       </c>
       <c r="N13" t="n">
         <v>1221.024306251793</v>
@@ -5221,28 +5221,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R13" t="n">
-        <v>1762.757492825128</v>
+        <v>1663.936172007395</v>
       </c>
       <c r="S13" t="n">
-        <v>1567.586876449412</v>
+        <v>1468.765555631679</v>
       </c>
       <c r="T13" t="n">
-        <v>1567.586876449412</v>
+        <v>1296.997374801743</v>
       </c>
       <c r="U13" t="n">
-        <v>1567.586876449412</v>
+        <v>1296.997374801743</v>
       </c>
       <c r="V13" t="n">
-        <v>1312.902388243525</v>
+        <v>1296.997374801743</v>
       </c>
       <c r="W13" t="n">
-        <v>1312.902388243525</v>
+        <v>1296.997374801743</v>
       </c>
       <c r="X13" t="n">
-        <v>1084.912837345508</v>
+        <v>1069.007823903726</v>
       </c>
       <c r="Y13" t="n">
-        <v>864.1202582019779</v>
+        <v>848.2152447601959</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5252,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.113933790196</v>
+        <v>2397.113933790198</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.151416849785</v>
+        <v>2028.151416849786</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.885718243034</v>
+        <v>1669.885718243036</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F14" t="n">
-        <v>873.1115608551827</v>
+        <v>873.1115608551831</v>
       </c>
       <c r="G14" t="n">
-        <v>457.5933374115029</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H14" t="n">
-        <v>155.4444613276154</v>
+        <v>155.4444613276153</v>
       </c>
       <c r="I14" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J14" t="n">
-        <v>415.4651227431204</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K14" t="n">
         <v>1014.612831184966</v>
       </c>
       <c r="L14" t="n">
-        <v>1810.18517131378</v>
+        <v>1396.700568908834</v>
       </c>
       <c r="M14" t="n">
-        <v>2267.000837401046</v>
+        <v>1946.490810595812</v>
       </c>
       <c r="N14" t="n">
         <v>2848.285495293143</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.637006335584</v>
+        <v>3654.637006335583</v>
       </c>
       <c r="P14" t="n">
-        <v>4305.164982501233</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q14" t="n">
-        <v>4716.462640937216</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.094392769726</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S14" t="n">
-        <v>4692.645665481112</v>
+        <v>4692.645665481111</v>
       </c>
       <c r="T14" t="n">
-        <v>4484.716545294154</v>
+        <v>4484.716545294153</v>
       </c>
       <c r="U14" t="n">
         <v>4231.150406704895</v>
@@ -5321,7 +5321,7 @@
         <v>3173.853105830131</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.713773854318</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I15" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J15" t="n">
-        <v>292.6837681104437</v>
+        <v>167.8536431234389</v>
       </c>
       <c r="K15" t="n">
-        <v>526.8967564225479</v>
+        <v>526.8967564225487</v>
       </c>
       <c r="L15" t="n">
-        <v>842.8385274502001</v>
+        <v>842.8385274502008</v>
       </c>
       <c r="M15" t="n">
-        <v>1230.884540401125</v>
+        <v>1230.884540401126</v>
       </c>
       <c r="N15" t="n">
         <v>1643.60962156366</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.26188785539453</v>
+        <v>294.2333025170446</v>
       </c>
       <c r="C16" t="n">
-        <v>96.26188785539453</v>
+        <v>294.2333025170446</v>
       </c>
       <c r="D16" t="n">
-        <v>96.26188785539453</v>
+        <v>294.2333025170446</v>
       </c>
       <c r="E16" t="n">
-        <v>96.26188785539453</v>
+        <v>146.3202089346515</v>
       </c>
       <c r="F16" t="n">
-        <v>96.26188785539453</v>
+        <v>146.3202089346515</v>
       </c>
       <c r="G16" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H16" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I16" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J16" t="n">
-        <v>127.5287784303311</v>
+        <v>127.528778430331</v>
       </c>
       <c r="K16" t="n">
-        <v>308.7467211677959</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L16" t="n">
-        <v>596.1697313207188</v>
+        <v>596.1697313207187</v>
       </c>
       <c r="M16" t="n">
-        <v>909.6061189417569</v>
+        <v>909.6061189417568</v>
       </c>
       <c r="N16" t="n">
         <v>1221.024306251793</v>
@@ -5458,28 +5458,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R16" t="n">
-        <v>1762.757492825128</v>
+        <v>1663.936172007395</v>
       </c>
       <c r="S16" t="n">
-        <v>1567.586876449412</v>
+        <v>1468.765555631679</v>
       </c>
       <c r="T16" t="n">
-        <v>1344.965892664638</v>
+        <v>1468.765555631679</v>
       </c>
       <c r="U16" t="n">
-        <v>1055.852118960226</v>
+        <v>1468.765555631679</v>
       </c>
       <c r="V16" t="n">
-        <v>801.1676307543393</v>
+        <v>1214.081067425793</v>
       </c>
       <c r="W16" t="n">
-        <v>511.7504607173786</v>
+        <v>924.6638973888319</v>
       </c>
       <c r="X16" t="n">
-        <v>283.7609098193613</v>
+        <v>696.6743464908145</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.26188785539453</v>
+        <v>475.8817673472844</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2397.113933790197</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.151416849786</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D17" t="n">
         <v>1669.885718243035</v>
@@ -5501,19 +5501,19 @@
         <v>1284.097465644791</v>
       </c>
       <c r="F17" t="n">
-        <v>873.1115608551834</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G17" t="n">
-        <v>457.5933374115035</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H17" t="n">
         <v>155.4444613276153</v>
       </c>
       <c r="I17" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J17" t="n">
-        <v>415.4651227431204</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K17" t="n">
         <v>1014.612831184966</v>
@@ -5528,25 +5528,25 @@
         <v>2848.285495293143</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.637006335584</v>
+        <v>3654.637006335583</v>
       </c>
       <c r="P17" t="n">
-        <v>4305.164982501233</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q17" t="n">
-        <v>4716.462640937216</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.094392769726</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.645665481113</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T17" t="n">
         <v>4484.716545294154</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.150406704896</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V17" t="n">
         <v>3900.087519361325</v>
@@ -5589,16 +5589,16 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I18" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J18" t="n">
         <v>292.6837681104437</v>
       </c>
       <c r="K18" t="n">
-        <v>493.2003055554645</v>
+        <v>493.2003055554644</v>
       </c>
       <c r="L18" t="n">
-        <v>809.1420765831167</v>
+        <v>809.1420765831165</v>
       </c>
       <c r="M18" t="n">
         <v>1197.188089534041</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.26188785539453</v>
+        <v>170.7370358825519</v>
       </c>
       <c r="C19" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D19" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E19" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F19" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G19" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H19" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I19" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J19" t="n">
-        <v>127.5287784303311</v>
+        <v>127.528778430331</v>
       </c>
       <c r="K19" t="n">
-        <v>308.7467211677959</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L19" t="n">
-        <v>596.1697313207188</v>
+        <v>596.1697313207187</v>
       </c>
       <c r="M19" t="n">
-        <v>909.6061189417569</v>
+        <v>909.6061189417568</v>
       </c>
       <c r="N19" t="n">
         <v>1221.024306251793</v>
@@ -5701,22 +5701,22 @@
         <v>1567.586876449412</v>
       </c>
       <c r="T19" t="n">
-        <v>1344.965892664638</v>
+        <v>1344.965892664637</v>
       </c>
       <c r="U19" t="n">
         <v>1055.852118960226</v>
       </c>
       <c r="V19" t="n">
-        <v>801.1676307543393</v>
+        <v>801.167630754339</v>
       </c>
       <c r="W19" t="n">
-        <v>511.7504607173786</v>
+        <v>801.167630754339</v>
       </c>
       <c r="X19" t="n">
-        <v>283.7609098193613</v>
+        <v>573.1780798563217</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.26188785539453</v>
+        <v>352.3855007127916</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>2397.113933790197</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.151416849786</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.885718243035</v>
+        <v>1669.885718243034</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.097465644791</v>
+        <v>1284.09746564479</v>
       </c>
       <c r="F20" t="n">
         <v>873.1115608551831</v>
@@ -5747,34 +5747,34 @@
         <v>155.4444613276153</v>
       </c>
       <c r="I20" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J20" t="n">
-        <v>415.4651227431204</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K20" t="n">
         <v>1014.612831184966</v>
       </c>
       <c r="L20" t="n">
-        <v>1810.18517131378</v>
+        <v>1421.64892580076</v>
       </c>
       <c r="M20" t="n">
-        <v>2379.464265763677</v>
+        <v>2323.48299004593</v>
       </c>
       <c r="N20" t="n">
-        <v>2848.285495293143</v>
+        <v>3225.27767474326</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.637006335584</v>
+        <v>3654.637006335583</v>
       </c>
       <c r="P20" t="n">
-        <v>4305.164982501233</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q20" t="n">
-        <v>4716.462640937216</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.094392769726</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S20" t="n">
         <v>4692.645665481112</v>
@@ -5789,7 +5789,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.318864091211</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X20" t="n">
         <v>3173.853105830131</v>
@@ -5826,28 +5826,28 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I21" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J21" t="n">
-        <v>167.853643123439</v>
+        <v>167.8536431234389</v>
       </c>
       <c r="K21" t="n">
         <v>630.1907652109126</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.815042308691</v>
+        <v>946.1325362385646</v>
       </c>
       <c r="M21" t="n">
-        <v>1438.861055259616</v>
+        <v>1334.178549189489</v>
       </c>
       <c r="N21" t="n">
-        <v>1851.58613642215</v>
+        <v>1746.903630352024</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.929158097671</v>
+        <v>2102.246652027545</v>
       </c>
       <c r="P21" t="n">
-        <v>2472.790194343173</v>
+        <v>2368.107688273047</v>
       </c>
       <c r="Q21" t="n">
         <v>2600.592059963695</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.159683112774</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="C22" t="n">
-        <v>412.159683112774</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D22" t="n">
-        <v>412.159683112774</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E22" t="n">
-        <v>412.159683112774</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F22" t="n">
-        <v>412.159683112774</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G22" t="n">
-        <v>244.2568879364864</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H22" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I22" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J22" t="n">
-        <v>127.5287784303311</v>
+        <v>127.528778430331</v>
       </c>
       <c r="K22" t="n">
-        <v>308.7467211677959</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L22" t="n">
-        <v>596.1697313207188</v>
+        <v>596.1697313207187</v>
       </c>
       <c r="M22" t="n">
-        <v>909.6061189417569</v>
+        <v>909.6061189417568</v>
       </c>
       <c r="N22" t="n">
         <v>1221.024306251793</v>
@@ -5932,28 +5932,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R22" t="n">
-        <v>1663.936172007396</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="S22" t="n">
-        <v>1663.936172007396</v>
+        <v>1567.586876449412</v>
       </c>
       <c r="T22" t="n">
-        <v>1441.315188222621</v>
+        <v>1344.965892664637</v>
       </c>
       <c r="U22" t="n">
-        <v>1152.20141451821</v>
+        <v>1055.852118960226</v>
       </c>
       <c r="V22" t="n">
-        <v>922.3694322932647</v>
+        <v>801.167630754339</v>
       </c>
       <c r="W22" t="n">
-        <v>632.9522622563042</v>
+        <v>511.7504607173784</v>
       </c>
       <c r="X22" t="n">
-        <v>632.9522622563042</v>
+        <v>283.7609098193611</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.159683112774</v>
+        <v>96.26188785539451</v>
       </c>
     </row>
     <row r="23">
@@ -5972,46 +5972,46 @@
         <v>1669.885718243035</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F23" t="n">
-        <v>873.1115608551831</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G23" t="n">
-        <v>457.5933374115034</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H23" t="n">
         <v>155.4444613276153</v>
       </c>
       <c r="I23" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J23" t="n">
-        <v>415.4651227431204</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K23" t="n">
-        <v>1014.612831184966</v>
+        <v>777.8569680649007</v>
       </c>
       <c r="L23" t="n">
-        <v>1810.18517131378</v>
+        <v>1573.429308193715</v>
       </c>
       <c r="M23" t="n">
-        <v>2267.000837401046</v>
+        <v>2475.263372438885</v>
       </c>
       <c r="N23" t="n">
-        <v>2848.285495293143</v>
+        <v>3377.058057136216</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.637006335584</v>
+        <v>4183.409568178657</v>
       </c>
       <c r="P23" t="n">
-        <v>4305.164982501233</v>
+        <v>4515.356823254538</v>
       </c>
       <c r="Q23" t="n">
-        <v>4716.462640937216</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R23" t="n">
-        <v>4813.094392769726</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S23" t="n">
         <v>4692.645665481112</v>
@@ -6026,7 +6026,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091211</v>
       </c>
       <c r="X23" t="n">
         <v>3173.853105830131</v>
@@ -6063,31 +6063,31 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I24" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J24" t="n">
-        <v>292.6837681104437</v>
+        <v>167.8536431234389</v>
       </c>
       <c r="K24" t="n">
-        <v>496.485619993897</v>
+        <v>526.8967564225487</v>
       </c>
       <c r="L24" t="n">
-        <v>812.4273910215492</v>
+        <v>842.8385274502008</v>
       </c>
       <c r="M24" t="n">
-        <v>1200.473403972474</v>
+        <v>1230.884540401126</v>
       </c>
       <c r="N24" t="n">
-        <v>1613.198485135009</v>
+        <v>1643.60962156366</v>
       </c>
       <c r="O24" t="n">
-        <v>1968.54150681053</v>
+        <v>1998.952643239181</v>
       </c>
       <c r="P24" t="n">
-        <v>2234.402543056032</v>
+        <v>2264.813679484683</v>
       </c>
       <c r="Q24" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R24" t="n">
         <v>2600.592059963695</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.26188785539453</v>
+        <v>412.159683112774</v>
       </c>
       <c r="C25" t="n">
-        <v>96.26188785539453</v>
+        <v>412.159683112774</v>
       </c>
       <c r="D25" t="n">
-        <v>96.26188785539453</v>
+        <v>412.159683112774</v>
       </c>
       <c r="E25" t="n">
-        <v>96.26188785539453</v>
+        <v>412.159683112774</v>
       </c>
       <c r="F25" t="n">
-        <v>96.26188785539453</v>
+        <v>412.159683112774</v>
       </c>
       <c r="G25" t="n">
-        <v>96.26188785539453</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="H25" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I25" t="n">
-        <v>96.26188785539453</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J25" t="n">
-        <v>127.5287784303311</v>
+        <v>127.528778430331</v>
       </c>
       <c r="K25" t="n">
-        <v>308.7467211677959</v>
+        <v>308.7467211677958</v>
       </c>
       <c r="L25" t="n">
-        <v>596.1697313207188</v>
+        <v>596.1697313207187</v>
       </c>
       <c r="M25" t="n">
-        <v>909.6061189417569</v>
+        <v>909.6061189417568</v>
       </c>
       <c r="N25" t="n">
         <v>1221.024306251793</v>
@@ -6169,28 +6169,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R25" t="n">
-        <v>1762.757492825128</v>
+        <v>1694.15724510158</v>
       </c>
       <c r="S25" t="n">
-        <v>1567.586876449412</v>
+        <v>1694.15724510158</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.965892664638</v>
+        <v>1694.15724510158</v>
       </c>
       <c r="U25" t="n">
-        <v>1055.852118960226</v>
+        <v>1405.043471397169</v>
       </c>
       <c r="V25" t="n">
-        <v>801.1676307543393</v>
+        <v>1150.358983191282</v>
       </c>
       <c r="W25" t="n">
-        <v>511.7504607173786</v>
+        <v>860.9418131543215</v>
       </c>
       <c r="X25" t="n">
-        <v>283.7609098193613</v>
+        <v>632.9522622563042</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.26188785539453</v>
+        <v>412.159683112774</v>
       </c>
     </row>
     <row r="26">
@@ -6209,64 +6209,64 @@
         <v>1669.885718243035</v>
       </c>
       <c r="E26" t="n">
-        <v>1284.097465644791</v>
+        <v>1284.09746564479</v>
       </c>
       <c r="F26" t="n">
-        <v>873.1115608551841</v>
+        <v>873.1115608551829</v>
       </c>
       <c r="G26" t="n">
-        <v>457.5933374115039</v>
+        <v>457.5933374115032</v>
       </c>
       <c r="H26" t="n">
-        <v>155.4444613276152</v>
+        <v>155.4444613276153</v>
       </c>
       <c r="I26" t="n">
-        <v>96.26188785539451</v>
+        <v>96.26188785539449</v>
       </c>
       <c r="J26" t="n">
-        <v>248.0594737227674</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9162237391533</v>
+        <v>693.7088727395126</v>
       </c>
       <c r="L26" t="n">
-        <v>1638.488563867968</v>
+        <v>1489.281212868327</v>
       </c>
       <c r="M26" t="n">
-        <v>2540.322628113138</v>
+        <v>2391.115277113497</v>
       </c>
       <c r="N26" t="n">
-        <v>3442.117312810468</v>
+        <v>3292.909961810828</v>
       </c>
       <c r="O26" t="n">
-        <v>4248.46882385291</v>
+        <v>4099.261472853269</v>
       </c>
       <c r="P26" t="n">
-        <v>4580.416078928791</v>
+        <v>4431.20872792915</v>
       </c>
       <c r="Q26" t="n">
-        <v>4781.521896611468</v>
+        <v>4716.462640937214</v>
       </c>
       <c r="R26" t="n">
-        <v>4813.094392769725</v>
+        <v>4813.094392769724</v>
       </c>
       <c r="S26" t="n">
-        <v>4692.645665481112</v>
+        <v>4692.645665481111</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.716545294154</v>
+        <v>4484.716545294153</v>
       </c>
       <c r="U26" t="n">
         <v>4231.150406704895</v>
       </c>
       <c r="V26" t="n">
-        <v>3900.087519361325</v>
+        <v>3900.087519361324</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091209</v>
       </c>
       <c r="X26" t="n">
-        <v>3173.853105830131</v>
+        <v>3173.85310583013</v>
       </c>
       <c r="Y26" t="n">
         <v>2783.713773854319</v>
@@ -6300,25 +6300,25 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I27" t="n">
-        <v>96.26188785539451</v>
+        <v>96.26188785539449</v>
       </c>
       <c r="J27" t="n">
         <v>292.6837681104437</v>
       </c>
       <c r="K27" t="n">
-        <v>493.2003055554645</v>
+        <v>493.2003055554644</v>
       </c>
       <c r="L27" t="n">
-        <v>809.1420765831167</v>
+        <v>809.1420765831165</v>
       </c>
       <c r="M27" t="n">
         <v>1197.188089534041</v>
       </c>
       <c r="N27" t="n">
-        <v>1613.198485135009</v>
+        <v>1609.913170696576</v>
       </c>
       <c r="O27" t="n">
-        <v>1968.54150681053</v>
+        <v>1965.256192372097</v>
       </c>
       <c r="P27" t="n">
         <v>2234.402543056032</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.26188785539451</v>
+        <v>368.5370469352273</v>
       </c>
       <c r="C28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="D28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="E28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="F28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="G28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="H28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="I28" t="n">
-        <v>96.26188785539451</v>
+        <v>96.26188785539449</v>
       </c>
       <c r="J28" t="n">
         <v>127.528778430331</v>
@@ -6406,28 +6406,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R28" t="n">
-        <v>1762.757492825128</v>
+        <v>1663.936172007395</v>
       </c>
       <c r="S28" t="n">
-        <v>1567.586876449412</v>
+        <v>1468.765555631679</v>
       </c>
       <c r="T28" t="n">
-        <v>1344.965892664638</v>
+        <v>1246.144571846905</v>
       </c>
       <c r="U28" t="n">
-        <v>1055.852118960226</v>
+        <v>957.0307981424933</v>
       </c>
       <c r="V28" t="n">
-        <v>801.1676307543393</v>
+        <v>702.3463099366064</v>
       </c>
       <c r="W28" t="n">
-        <v>511.7504607173786</v>
+        <v>702.3463099366064</v>
       </c>
       <c r="X28" t="n">
-        <v>283.7609098193613</v>
+        <v>474.3567590385891</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.26188785539451</v>
+        <v>368.5370469352273</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6446,34 @@
         <v>1669.885718243035</v>
       </c>
       <c r="E29" t="n">
-        <v>1284.097465644791</v>
+        <v>1284.09746564479</v>
       </c>
       <c r="F29" t="n">
-        <v>873.1115608551836</v>
+        <v>873.1115608551829</v>
       </c>
       <c r="G29" t="n">
-        <v>457.5933374115039</v>
+        <v>457.5933374115032</v>
       </c>
       <c r="H29" t="n">
-        <v>155.4444613276152</v>
+        <v>155.4444613276153</v>
       </c>
       <c r="I29" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J29" t="n">
-        <v>248.0594737227674</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K29" t="n">
-        <v>662.569008626773</v>
+        <v>1014.612831184966</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.656746350641</v>
+        <v>1810.18517131378</v>
       </c>
       <c r="M29" t="n">
-        <v>1946.490810595812</v>
+        <v>2712.01923555895</v>
       </c>
       <c r="N29" t="n">
-        <v>2848.285495293142</v>
+        <v>3180.840465088416</v>
       </c>
       <c r="O29" t="n">
         <v>3654.637006335583</v>
@@ -6540,28 +6540,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J30" t="n">
-        <v>292.6837681104437</v>
+        <v>167.8536431234389</v>
       </c>
       <c r="K30" t="n">
-        <v>496.485619993897</v>
+        <v>630.1907652109126</v>
       </c>
       <c r="L30" t="n">
-        <v>812.4273910215492</v>
+        <v>946.1325362385646</v>
       </c>
       <c r="M30" t="n">
-        <v>1200.473403972474</v>
+        <v>1334.178549189489</v>
       </c>
       <c r="N30" t="n">
-        <v>1613.198485135009</v>
+        <v>1746.903630352024</v>
       </c>
       <c r="O30" t="n">
-        <v>1968.54150681053</v>
+        <v>2102.246652027545</v>
       </c>
       <c r="P30" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q30" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R30" t="n">
         <v>2600.592059963695</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.26188785539451</v>
+        <v>961.4517275089584</v>
       </c>
       <c r="C31" t="n">
-        <v>96.26188785539451</v>
+        <v>792.5155445810515</v>
       </c>
       <c r="D31" t="n">
-        <v>96.26188785539451</v>
+        <v>642.3989051687157</v>
       </c>
       <c r="E31" t="n">
-        <v>96.26188785539451</v>
+        <v>494.4858115863226</v>
       </c>
       <c r="F31" t="n">
-        <v>96.26188785539451</v>
+        <v>347.5958640884122</v>
       </c>
       <c r="G31" t="n">
-        <v>96.26188785539451</v>
+        <v>347.5958640884122</v>
       </c>
       <c r="H31" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="I31" t="n">
         <v>96.26188785539451</v>
@@ -6643,28 +6643,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R31" t="n">
-        <v>1762.757492825128</v>
+        <v>1663.936172007395</v>
       </c>
       <c r="S31" t="n">
-        <v>1567.586876449412</v>
+        <v>1653.309941519689</v>
       </c>
       <c r="T31" t="n">
-        <v>1344.965892664638</v>
+        <v>1653.309941519689</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.794140970029</v>
+        <v>1653.309941519689</v>
       </c>
       <c r="V31" t="n">
-        <v>1016.109652764142</v>
+        <v>1653.309941519689</v>
       </c>
       <c r="W31" t="n">
-        <v>726.6924827271816</v>
+        <v>1363.892771482728</v>
       </c>
       <c r="X31" t="n">
-        <v>498.7029318291643</v>
+        <v>1363.892771482728</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.9103526856342</v>
+        <v>1143.100192339198</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6692,31 @@
         <v>457.5933374115033</v>
       </c>
       <c r="H32" t="n">
-        <v>155.4444613276152</v>
+        <v>155.4444613276153</v>
       </c>
       <c r="I32" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J32" t="n">
-        <v>248.0594737227674</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K32" t="n">
-        <v>847.2071821646127</v>
+        <v>1014.612831184966</v>
       </c>
       <c r="L32" t="n">
-        <v>1642.779522293427</v>
+        <v>1810.18517131378</v>
       </c>
       <c r="M32" t="n">
-        <v>2156.682651349117</v>
+        <v>2379.464265763676</v>
       </c>
       <c r="N32" t="n">
-        <v>3058.477336046448</v>
+        <v>2848.285495293143</v>
       </c>
       <c r="O32" t="n">
-        <v>3864.828847088889</v>
+        <v>3654.637006335583</v>
       </c>
       <c r="P32" t="n">
-        <v>4515.356823254538</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q32" t="n">
         <v>4716.462640937215</v>
@@ -6737,7 +6737,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091211</v>
       </c>
       <c r="X32" t="n">
         <v>3173.853105830131</v>
@@ -6780,19 +6780,19 @@
         <v>292.6837681104437</v>
       </c>
       <c r="K33" t="n">
-        <v>496.485619993897</v>
+        <v>493.2003055554644</v>
       </c>
       <c r="L33" t="n">
-        <v>812.4273910215492</v>
+        <v>809.1420765831165</v>
       </c>
       <c r="M33" t="n">
-        <v>1200.473403972474</v>
+        <v>1197.188089534041</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.198485135009</v>
+        <v>1609.913170696576</v>
       </c>
       <c r="O33" t="n">
-        <v>1968.54150681053</v>
+        <v>1965.256192372097</v>
       </c>
       <c r="P33" t="n">
         <v>2234.402543056032</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.8983365001468</v>
+        <v>733.8983365001466</v>
       </c>
       <c r="C34" t="n">
-        <v>621.4558944558255</v>
+        <v>621.4558944558253</v>
       </c>
       <c r="D34" t="n">
-        <v>527.8329959270753</v>
+        <v>527.8329959270751</v>
       </c>
       <c r="E34" t="n">
-        <v>436.4136432282679</v>
+        <v>436.4136432282676</v>
       </c>
       <c r="F34" t="n">
-        <v>346.0174366139431</v>
+        <v>346.0174366139428</v>
       </c>
       <c r="G34" t="n">
-        <v>234.608382321241</v>
+        <v>234.6083823212407</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1071231237348</v>
+        <v>143.1071231237343</v>
       </c>
       <c r="I34" t="n">
         <v>96.26188785539451</v>
@@ -6859,13 +6859,13 @@
         <v>182.8982938703332</v>
       </c>
       <c r="K34" t="n">
-        <v>419.4857520478003</v>
+        <v>419.4857520478002</v>
       </c>
       <c r="L34" t="n">
-        <v>762.2782776407255</v>
+        <v>762.2782776407253</v>
       </c>
       <c r="M34" t="n">
-        <v>1131.084180701766</v>
+        <v>1131.084180701765</v>
       </c>
       <c r="N34" t="n">
         <v>1497.871883451804</v>
@@ -6883,13 +6883,13 @@
         <v>2163.386036410999</v>
       </c>
       <c r="S34" t="n">
-        <v>2024.709160918869</v>
+        <v>2024.709160918868</v>
       </c>
       <c r="T34" t="n">
-        <v>1858.58191801768</v>
+        <v>1858.581918017679</v>
       </c>
       <c r="U34" t="n">
-        <v>1625.961885196854</v>
+        <v>1625.961885196853</v>
       </c>
       <c r="V34" t="n">
         <v>1427.771137874552</v>
@@ -6901,7 +6901,7 @@
         <v>1023.351898706745</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.0530604468009</v>
+        <v>859.0530604468007</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1984.363745293796</v>
       </c>
       <c r="C35" t="n">
-        <v>1671.89496923697</v>
+        <v>1671.894969236969</v>
       </c>
       <c r="D35" t="n">
         <v>1370.123011513805</v>
@@ -6923,34 +6923,34 @@
         <v>1040.828499799146</v>
       </c>
       <c r="F35" t="n">
-        <v>686.3363358931247</v>
+        <v>686.336335893124</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3118533330305</v>
+        <v>327.3118533330298</v>
       </c>
       <c r="H35" t="n">
-        <v>81.65671813272795</v>
+        <v>81.65671813272793</v>
       </c>
       <c r="I35" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J35" t="n">
-        <v>398.1711204318187</v>
+        <v>398.1711204318186</v>
       </c>
       <c r="K35" t="n">
-        <v>997.318828873664</v>
+        <v>676.4148704282109</v>
       </c>
       <c r="L35" t="n">
-        <v>1434.940663561442</v>
+        <v>1471.987210557025</v>
       </c>
       <c r="M35" t="n">
-        <v>1891.756329648708</v>
+        <v>1928.802876644291</v>
       </c>
       <c r="N35" t="n">
-        <v>2360.577559178174</v>
+        <v>2397.624106173757</v>
       </c>
       <c r="O35" t="n">
-        <v>2789.936890770497</v>
+        <v>2826.98343776608</v>
       </c>
       <c r="P35" t="n">
         <v>3440.464866936146</v>
@@ -6962,22 +6962,22 @@
         <v>3948.394277204639</v>
       </c>
       <c r="S35" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.43929079961</v>
       </c>
       <c r="T35" t="n">
-        <v>3733.003911496239</v>
+        <v>3733.003911496238</v>
       </c>
       <c r="U35" t="n">
         <v>3535.931513790566</v>
       </c>
       <c r="V35" t="n">
-        <v>3261.362367330581</v>
+        <v>3261.36236733058</v>
       </c>
       <c r="W35" t="n">
-        <v>2965.087452944053</v>
+        <v>2965.087452944052</v>
       </c>
       <c r="X35" t="n">
-        <v>2648.115435566559</v>
+        <v>2648.115435566558</v>
       </c>
       <c r="Y35" t="n">
         <v>2314.469844474332</v>
@@ -7011,28 +7011,28 @@
         <v>95.9589981030618</v>
       </c>
       <c r="I36" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J36" t="n">
-        <v>150.5596408121373</v>
+        <v>150.5596408121372</v>
       </c>
       <c r="K36" t="n">
-        <v>351.0761782571581</v>
+        <v>509.6027541112472</v>
       </c>
       <c r="L36" t="n">
-        <v>667.0179492848101</v>
+        <v>825.5445251388993</v>
       </c>
       <c r="M36" t="n">
-        <v>1055.063962235735</v>
+        <v>1213.590538089824</v>
       </c>
       <c r="N36" t="n">
-        <v>1467.789043398269</v>
+        <v>1626.315619252359</v>
       </c>
       <c r="O36" t="n">
-        <v>2189.63515578637</v>
+        <v>1981.65864092788</v>
       </c>
       <c r="P36" t="n">
-        <v>2455.496192031872</v>
+        <v>2247.519677173382</v>
       </c>
       <c r="Q36" t="n">
         <v>2583.298057652393</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>716.6043341888454</v>
+        <v>716.6043341888451</v>
       </c>
       <c r="C37" t="n">
-        <v>604.1618921445241</v>
+        <v>604.1618921445238</v>
       </c>
       <c r="D37" t="n">
-        <v>510.538993615774</v>
+        <v>510.5389936157737</v>
       </c>
       <c r="E37" t="n">
-        <v>419.1196409169665</v>
+        <v>419.1196409169662</v>
       </c>
       <c r="F37" t="n">
-        <v>328.7234343026417</v>
+        <v>328.7234343026415</v>
       </c>
       <c r="G37" t="n">
-        <v>217.3143800099397</v>
+        <v>217.3143800099394</v>
       </c>
       <c r="H37" t="n">
         <v>125.8131208124331</v>
       </c>
       <c r="I37" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J37" t="n">
-        <v>165.6042915590313</v>
+        <v>165.6042915590319</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1917497364984</v>
+        <v>402.1917497364987</v>
       </c>
       <c r="L37" t="n">
-        <v>744.9842753294236</v>
+        <v>744.9842753294239</v>
       </c>
       <c r="M37" t="n">
         <v>1113.790178390464</v>
@@ -7108,16 +7108,16 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.576201541056</v>
+        <v>1807.576201541057</v>
       </c>
       <c r="P37" t="n">
         <v>2071.850402722025</v>
       </c>
       <c r="Q37" t="n">
-        <v>2188.419614033844</v>
+        <v>2188.419614033845</v>
       </c>
       <c r="R37" t="n">
-        <v>2146.092034099698</v>
+        <v>2146.092034099697</v>
       </c>
       <c r="S37" t="n">
         <v>2007.415158607567</v>
@@ -7138,7 +7138,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.7590581354996</v>
+        <v>841.7590581354991</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1984.363745293796</v>
       </c>
       <c r="C38" t="n">
-        <v>1671.894969236969</v>
+        <v>1671.89496923697</v>
       </c>
       <c r="D38" t="n">
         <v>1370.123011513805</v>
@@ -7160,46 +7160,46 @@
         <v>1040.828499799146</v>
       </c>
       <c r="F38" t="n">
-        <v>686.336335893124</v>
+        <v>686.3363358931244</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3118533330298</v>
+        <v>327.3118533330303</v>
       </c>
       <c r="H38" t="n">
         <v>81.65671813272795</v>
       </c>
       <c r="I38" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J38" t="n">
-        <v>398.1711204318187</v>
+        <v>230.7654714114656</v>
       </c>
       <c r="K38" t="n">
-        <v>994.4414674772238</v>
+        <v>704.4275791068803</v>
       </c>
       <c r="L38" t="n">
-        <v>1376.529205201092</v>
+        <v>1499.999919235695</v>
       </c>
       <c r="M38" t="n">
-        <v>1833.344871288358</v>
+        <v>1956.81558532296</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.166100817824</v>
+        <v>2425.636814852427</v>
       </c>
       <c r="O38" t="n">
-        <v>3108.517611860266</v>
+        <v>2854.99614644475</v>
       </c>
       <c r="P38" t="n">
-        <v>3440.464866936146</v>
+        <v>3505.524122610399</v>
       </c>
       <c r="Q38" t="n">
-        <v>3851.762525372129</v>
+        <v>3916.821781046382</v>
       </c>
       <c r="R38" t="n">
         <v>3948.394277204639</v>
       </c>
       <c r="S38" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.43929079961</v>
       </c>
       <c r="T38" t="n">
         <v>3733.003911496238</v>
@@ -7208,16 +7208,16 @@
         <v>3535.931513790566</v>
       </c>
       <c r="V38" t="n">
-        <v>3261.36236733058</v>
+        <v>3261.362367330581</v>
       </c>
       <c r="W38" t="n">
-        <v>2965.087452944052</v>
+        <v>2965.087452944053</v>
       </c>
       <c r="X38" t="n">
-        <v>2648.115435566558</v>
+        <v>2648.115435566559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2314.469844474332</v>
+        <v>2314.469844474333</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>95.9589981030618</v>
       </c>
       <c r="I39" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J39" t="n">
-        <v>275.389765799142</v>
+        <v>150.5596408121372</v>
       </c>
       <c r="K39" t="n">
-        <v>509.6027541112465</v>
+        <v>612.8967628996108</v>
       </c>
       <c r="L39" t="n">
-        <v>825.5445251388986</v>
+        <v>928.8385339272629</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.590538089823</v>
+        <v>1316.884546878188</v>
       </c>
       <c r="N39" t="n">
-        <v>1626.315619252358</v>
+        <v>1729.609628040722</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.65864092788</v>
+        <v>2084.952649716244</v>
       </c>
       <c r="P39" t="n">
-        <v>2247.519677173381</v>
+        <v>2350.813685961745</v>
       </c>
       <c r="Q39" t="n">
         <v>2583.298057652393</v>
@@ -7327,13 +7327,13 @@
         <v>125.8131208124331</v>
       </c>
       <c r="I40" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J40" t="n">
         <v>165.6042915590315</v>
       </c>
       <c r="K40" t="n">
-        <v>402.1917497364986</v>
+        <v>402.1917497364985</v>
       </c>
       <c r="L40" t="n">
         <v>744.9842753294238</v>
@@ -7394,22 +7394,22 @@
         <v>1370.123011513805</v>
       </c>
       <c r="E41" t="n">
-        <v>1040.828499799147</v>
+        <v>1040.828499799146</v>
       </c>
       <c r="F41" t="n">
-        <v>686.3363358931246</v>
+        <v>686.3363358931244</v>
       </c>
       <c r="G41" t="n">
-        <v>327.3118533330304</v>
+        <v>327.3118533330303</v>
       </c>
       <c r="H41" t="n">
-        <v>81.65671813272796</v>
+        <v>81.65671813272795</v>
       </c>
       <c r="I41" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J41" t="n">
-        <v>398.1711204318187</v>
+        <v>398.1711204318186</v>
       </c>
       <c r="K41" t="n">
         <v>997.318828873664</v>
@@ -7421,16 +7421,16 @@
         <v>1836.222232684798</v>
       </c>
       <c r="N41" t="n">
-        <v>2305.043462214265</v>
+        <v>2305.043462214264</v>
       </c>
       <c r="O41" t="n">
-        <v>3111.394973256706</v>
+        <v>2854.99614644475</v>
       </c>
       <c r="P41" t="n">
-        <v>3650.656707689452</v>
+        <v>3505.524122610399</v>
       </c>
       <c r="Q41" t="n">
-        <v>3851.762525372129</v>
+        <v>3916.821781046382</v>
       </c>
       <c r="R41" t="n">
         <v>3948.394277204639</v>
@@ -7439,7 +7439,7 @@
         <v>3884.439290799611</v>
       </c>
       <c r="T41" t="n">
-        <v>3733.003911496239</v>
+        <v>3733.003911496238</v>
       </c>
       <c r="U41" t="n">
         <v>3535.931513790566</v>
@@ -7454,7 +7454,7 @@
         <v>2648.115435566559</v>
       </c>
       <c r="Y41" t="n">
-        <v>2314.469844474333</v>
+        <v>2314.469844474332</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>95.9589981030618</v>
       </c>
       <c r="I42" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J42" t="n">
-        <v>275.389765799142</v>
+        <v>150.5596408121372</v>
       </c>
       <c r="K42" t="n">
-        <v>475.9063032441628</v>
+        <v>509.6027541112472</v>
       </c>
       <c r="L42" t="n">
-        <v>791.848074271815</v>
+        <v>825.5445251388993</v>
       </c>
       <c r="M42" t="n">
-        <v>1179.89408722274</v>
+        <v>1213.590538089824</v>
       </c>
       <c r="N42" t="n">
-        <v>1592.619168385274</v>
+        <v>1626.315619252359</v>
       </c>
       <c r="O42" t="n">
-        <v>1951.247504499229</v>
+        <v>1981.65864092788</v>
       </c>
       <c r="P42" t="n">
-        <v>2217.10854074473</v>
+        <v>2247.519677173382</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R42" t="n">
         <v>2583.298057652393</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.6043341888451</v>
+        <v>716.604334188845</v>
       </c>
       <c r="C43" t="n">
-        <v>604.1618921445238</v>
+        <v>604.1618921445237</v>
       </c>
       <c r="D43" t="n">
-        <v>510.5389936157737</v>
+        <v>510.5389936157736</v>
       </c>
       <c r="E43" t="n">
-        <v>419.1196409169661</v>
+        <v>419.119640916966</v>
       </c>
       <c r="F43" t="n">
-        <v>328.7234343026414</v>
+        <v>328.7234343026413</v>
       </c>
       <c r="G43" t="n">
         <v>217.3143800099393</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8131208124332</v>
+        <v>125.813120812433</v>
       </c>
       <c r="I43" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J43" t="n">
         <v>165.6042915590315</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1917497364985</v>
+        <v>402.1917497364984</v>
       </c>
       <c r="L43" t="n">
-        <v>744.9842753294238</v>
+        <v>744.9842753294237</v>
       </c>
       <c r="M43" t="n">
         <v>1113.790178390464</v>
@@ -7582,7 +7582,7 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.576201541057</v>
+        <v>1807.576201541056</v>
       </c>
       <c r="P43" t="n">
         <v>2071.850402722025</v>
@@ -7591,7 +7591,7 @@
         <v>2188.419614033844</v>
       </c>
       <c r="R43" t="n">
-        <v>2146.092034099697</v>
+        <v>2146.092034099698</v>
       </c>
       <c r="S43" t="n">
         <v>2007.415158607567</v>
@@ -7612,7 +7612,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.7590581354992</v>
+        <v>841.7590581354991</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1671.89496923697</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.123011513805</v>
+        <v>1370.123011513806</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.828499799146</v>
+        <v>1040.828499799147</v>
       </c>
       <c r="F44" t="n">
-        <v>686.3363358931247</v>
+        <v>686.3363358931249</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3118533330305</v>
+        <v>327.3118533330307</v>
       </c>
       <c r="H44" t="n">
-        <v>81.65671813272795</v>
+        <v>81.65671813272792</v>
       </c>
       <c r="I44" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J44" t="n">
-        <v>230.7654714114657</v>
+        <v>398.1711204318186</v>
       </c>
       <c r="K44" t="n">
-        <v>509.009221407858</v>
+        <v>676.4148704282107</v>
       </c>
       <c r="L44" t="n">
-        <v>891.0969591317262</v>
+        <v>1058.502608152079</v>
       </c>
       <c r="M44" t="n">
-        <v>1792.931023376897</v>
+        <v>1515.318274239345</v>
       </c>
       <c r="N44" t="n">
-        <v>2694.725708074227</v>
+        <v>2302.166100817824</v>
       </c>
       <c r="O44" t="n">
-        <v>3124.08503966655</v>
+        <v>3108.517611860265</v>
       </c>
       <c r="P44" t="n">
-        <v>3456.032294742431</v>
+        <v>3440.464866936146</v>
       </c>
       <c r="Q44" t="n">
-        <v>3867.329953178414</v>
+        <v>3851.762525372129</v>
       </c>
       <c r="R44" t="n">
         <v>3948.394277204639</v>
@@ -7676,7 +7676,7 @@
         <v>3884.439290799611</v>
       </c>
       <c r="T44" t="n">
-        <v>3733.003911496239</v>
+        <v>3733.003911496238</v>
       </c>
       <c r="U44" t="n">
         <v>3535.931513790566</v>
@@ -7691,7 +7691,7 @@
         <v>2648.115435566559</v>
       </c>
       <c r="Y44" t="n">
-        <v>2314.469844474332</v>
+        <v>2314.469844474333</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>95.9589981030618</v>
       </c>
       <c r="I45" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J45" t="n">
         <v>275.389765799142</v>
       </c>
       <c r="K45" t="n">
-        <v>475.9063032441628</v>
+        <v>479.1916176825965</v>
       </c>
       <c r="L45" t="n">
-        <v>791.848074271815</v>
+        <v>795.1333887102485</v>
       </c>
       <c r="M45" t="n">
-        <v>1179.89408722274</v>
+        <v>1183.179401661173</v>
       </c>
       <c r="N45" t="n">
-        <v>1592.619168385274</v>
+        <v>1595.904482823708</v>
       </c>
       <c r="O45" t="n">
-        <v>1947.962190060796</v>
+        <v>1951.247504499229</v>
       </c>
       <c r="P45" t="n">
-        <v>2217.10854074473</v>
+        <v>2217.108540744731</v>
       </c>
       <c r="Q45" t="n">
         <v>2552.886921223742</v>
@@ -7789,10 +7789,10 @@
         <v>510.5389936157737</v>
       </c>
       <c r="E46" t="n">
-        <v>419.1196409169661</v>
+        <v>419.1196409169662</v>
       </c>
       <c r="F46" t="n">
-        <v>328.7234343026414</v>
+        <v>328.7234343026415</v>
       </c>
       <c r="G46" t="n">
         <v>217.3143800099394</v>
@@ -7801,10 +7801,10 @@
         <v>125.8131208124331</v>
       </c>
       <c r="I46" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J46" t="n">
-        <v>165.6042915590315</v>
+        <v>165.6042915590316</v>
       </c>
       <c r="K46" t="n">
         <v>402.1917497364985</v>
@@ -7819,7 +7819,7 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.576201541057</v>
+        <v>1807.576201541056</v>
       </c>
       <c r="P46" t="n">
         <v>2071.850402722025</v>
@@ -7834,7 +7834,7 @@
         <v>2007.415158607567</v>
       </c>
       <c r="T46" t="n">
-        <v>1841.287915706378</v>
+        <v>1841.287915706377</v>
       </c>
       <c r="U46" t="n">
         <v>1608.667882885552</v>
@@ -7849,7 +7849,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.7590581354992</v>
+        <v>841.7590581354991</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,10 +8073,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>290.3442999767964</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8705,10 +8705,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>178.5138780655367</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>34.03681905766001</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.318499432760916</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>14.80335018642072</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>93.91371272698188</v>
       </c>
       <c r="N14" t="n">
-        <v>113.5994225885161</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.03681905766001</v>
+        <v>160.1278543980697</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>113.5994225885161</v>
+        <v>113.5994225885158</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.318499432760404</v>
+        <v>3.318499432760916</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9404,16 +9404,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>25.20036049689458</v>
       </c>
       <c r="M20" t="n">
-        <v>113.5994225885161</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>105.7399051213396</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>105.7399051213403</v>
       </c>
       <c r="R21" t="n">
         <v>14.80335018642072</v>
@@ -9638,25 +9638,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>84.99807608625065</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>113.5994225885161</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.318499432760149</v>
+        <v>160.1278543980697</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>319.8111111313067</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>84.99807608624914</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3.318499432760291</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3.318499432760916</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>137.6422069773872</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>44.8860703584283</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.318499432760149</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>105.7399051213399</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>57.66410400850941</v>
+        <v>113.5994225885157</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>3.318499432760149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>3.318499432760916</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>56.09504743829274</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>284.37795363049</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>160.1278543980699</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>370.2051421339184</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>14.80335018642072</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>321.2389869181947</v>
+        <v>197.3922805040631</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>34.0368190576603</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7399051213403</v>
       </c>
       <c r="R39" t="n">
         <v>14.80335018642072</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>121.811467311275</v>
       </c>
       <c r="P41" t="n">
-        <v>209.4085650069346</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>160.1278543980699</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3.318499432760348</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>321.2389869181955</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>49.99174532117962</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.318499432761399</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.318499432760404</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>92.13582832924162</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>42.92651748012006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.2237672245247</v>
       </c>
       <c r="H13" t="n">
-        <v>127.5746617776356</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.3947739469271</v>
+        <v>50.34427492529028</v>
       </c>
       <c r="U13" t="n">
         <v>286.2226359673672</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2237672245247</v>
+        <v>116.6660293560603</v>
       </c>
       <c r="H16" t="n">
         <v>146.5150500802809</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.96062160776771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>93.51642455174206</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.96062160776771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I22" t="n">
         <v>102.3055863904067</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S22" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>24.60398092113266</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>32.96062160776788</v>
       </c>
     </row>
     <row r="23">
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>102.3055863904067</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.83310760955521</v>
+        <v>29.91886236324301</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.96062160776771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>146.5150500802809</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3055863904067</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.96062160776765</v>
+        <v>113.8231383697666</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.2237672245247</v>
       </c>
       <c r="H31" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3055863904067</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>182.6989420291291</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U31" t="n">
-        <v>212.7926017897051</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40187.57292806611</v>
+        <v>40187.57292806613</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
@@ -26323,34 +26323,34 @@
         <v>39452.02359175716</v>
       </c>
       <c r="F2" t="n">
+        <v>39452.02359175716</v>
+      </c>
+      <c r="G2" t="n">
         <v>39452.02359175717</v>
       </c>
-      <c r="G2" t="n">
-        <v>39452.02359175718</v>
-      </c>
       <c r="H2" t="n">
-        <v>39452.02359175718</v>
+        <v>39452.02359175717</v>
       </c>
       <c r="I2" t="n">
-        <v>39452.02359175716</v>
+        <v>39452.02359175717</v>
       </c>
       <c r="J2" t="n">
         <v>39452.02359175717</v>
       </c>
       <c r="K2" t="n">
-        <v>39452.02359175716</v>
+        <v>39452.02359175718</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321417</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44743.04277979979</v>
+        <v>44743.04277979977</v>
       </c>
       <c r="M3" t="n">
-        <v>185927.1870186582</v>
+        <v>185927.1870186581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>40942.36953969272</v>
+        <v>40942.36953969281</v>
       </c>
       <c r="F4" t="n">
-        <v>40942.36953969279</v>
+        <v>40942.36953969281</v>
       </c>
       <c r="G4" t="n">
-        <v>40942.36953969277</v>
+        <v>40942.36953969285</v>
       </c>
       <c r="H4" t="n">
-        <v>40942.36953969281</v>
+        <v>40942.36953969285</v>
       </c>
       <c r="I4" t="n">
-        <v>40942.36953969281</v>
+        <v>40942.36953969286</v>
       </c>
       <c r="J4" t="n">
-        <v>40942.36953969284</v>
+        <v>40942.36953969282</v>
       </c>
       <c r="K4" t="n">
-        <v>40942.36953969283</v>
+        <v>40942.36953969285</v>
       </c>
       <c r="L4" t="n">
-        <v>59345.7331242964</v>
+        <v>59345.73312429643</v>
       </c>
       <c r="M4" t="n">
-        <v>83731.80533908248</v>
+        <v>83731.80533908249</v>
       </c>
       <c r="N4" t="n">
-        <v>83731.80533908245</v>
+        <v>83731.80533908246</v>
       </c>
       <c r="O4" t="n">
-        <v>83731.80533908242</v>
+        <v>83731.80533908246</v>
       </c>
       <c r="P4" t="n">
-        <v>83731.80533908246</v>
+        <v>83731.80533908251</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>94523.02291287652</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="F5" t="n">
-        <v>94523.02291287652</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="G5" t="n">
-        <v>94523.02291287652</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="H5" t="n">
-        <v>94523.02291287652</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="I5" t="n">
-        <v>94523.02291287652</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="J5" t="n">
         <v>94523.02291287651</v>
@@ -26503,13 +26503,13 @@
         <v>86081.45973560594</v>
       </c>
       <c r="N5" t="n">
-        <v>86081.45973560594</v>
+        <v>86081.45973560592</v>
       </c>
       <c r="O5" t="n">
-        <v>86081.45973560594</v>
+        <v>86081.45973560592</v>
       </c>
       <c r="P5" t="n">
-        <v>86081.45973560594</v>
+        <v>86081.45973560592</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-425060.0756544598</v>
+        <v>-425103.3014327172</v>
       </c>
       <c r="C6" t="n">
         <v>-353294.8689758184</v>
@@ -26528,25 +26528,25 @@
         <v>-353294.8689758184</v>
       </c>
       <c r="E6" t="n">
-        <v>-1170657.331939014</v>
+        <v>-1170737.335184087</v>
       </c>
       <c r="F6" t="n">
-        <v>-96013.36886081214</v>
+        <v>-96093.37210588501</v>
       </c>
       <c r="G6" t="n">
-        <v>-96013.3688608121</v>
+        <v>-96093.37210588504</v>
       </c>
       <c r="H6" t="n">
-        <v>-96013.36886081216</v>
+        <v>-96093.37210588504</v>
       </c>
       <c r="I6" t="n">
-        <v>-96013.36886081217</v>
+        <v>-96093.37210588504</v>
       </c>
       <c r="J6" t="n">
-        <v>-159073.3114599183</v>
+        <v>-159153.3147049912</v>
       </c>
       <c r="K6" t="n">
-        <v>-96013.36886081219</v>
+        <v>-96093.37210588501</v>
       </c>
       <c r="L6" t="n">
         <v>-162261.5889030773</v>
@@ -26561,7 +26561,7 @@
         <v>-128761.1765814742</v>
       </c>
       <c r="P6" t="n">
-        <v>-128761.1765814742</v>
+        <v>-128761.1765814743</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M2" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="N2" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O2" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="P2" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="F3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="G3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="H3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="I3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="J3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="K3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="L3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="M3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="N3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="O3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="P3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906736</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>1203.273598192432</v>
+        <v>1203.273598192431</v>
       </c>
       <c r="F4" t="n">
-        <v>1203.273598192432</v>
+        <v>1203.273598192431</v>
       </c>
       <c r="G4" t="n">
-        <v>1203.273598192432</v>
+        <v>1203.273598192431</v>
       </c>
       <c r="H4" t="n">
-        <v>1203.273598192432</v>
+        <v>1203.273598192431</v>
       </c>
       <c r="I4" t="n">
-        <v>1203.273598192432</v>
+        <v>1203.273598192431</v>
       </c>
       <c r="J4" t="n">
         <v>1203.273598192431</v>
@@ -26820,16 +26820,16 @@
         <v>1203.273598192431</v>
       </c>
       <c r="M4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.0985693011597</v>
       </c>
       <c r="N4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.0985693011597</v>
       </c>
       <c r="O4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.0985693011597</v>
       </c>
       <c r="P4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.0985693011597</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>979.9994560906738</v>
+        <v>979.9994560906737</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.2593093147725</v>
+        <v>962.2593093147723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.084280423501</v>
+        <v>746.0842804235007</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.2593093147725</v>
+        <v>962.2593093147723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>50.12990675993434</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>146.4033214632107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>102.2971322982745</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>47.53375785378987</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.3880580596166</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>183.1354984266066</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>120.7153796195715</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>183.8669409985738</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>192.7212624443465</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>185.3023479524059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>187.5329255313623</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>35.84938394167949</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27983,10 +27983,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>93.11850830536599</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28068,10 +28068,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,13 +28090,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28105,10 +28105,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.957314991463585e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,22 +28138,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>-4.85563726895018e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.697685318346743e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28864,10 +28864,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="K34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="L34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="N34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="O34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="P34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="R34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="S34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="C35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="D35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="E35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="F35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="G35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="H35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="I35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="T35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="U35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="V35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="W35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="X35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="C37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="D37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="E37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="F37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="G37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="H37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="I37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="J37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="K37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="L37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="M37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="N37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="O37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="P37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="R37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="S37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="T37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="U37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="V37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="W37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="X37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474976</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="K40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="L40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M40" t="n">
         <v>55.9288034747492</v>
       </c>
       <c r="N40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="P40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="R40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="S40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D41" t="n">
-        <v>55.92880347474954</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474949</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="K43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="L43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="N43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="P43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="R43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="S43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="C44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="D44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="E44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="F44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="G44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="H44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="I44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="T44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="U44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="V44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="W44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="X44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="C46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="D46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="E46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="F46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="G46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="H46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="I46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="J46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="K46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="L46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="M46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="N46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="O46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="P46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="R46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="S46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="T46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="U46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="V46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="W46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="X46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.92880347474973</v>
+        <v>55.92880347474977</v>
       </c>
     </row>
   </sheetData>
@@ -31768,13 +31768,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M11" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N11" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O11" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P11" t="n">
         <v>566.5332534076744</v>
@@ -31783,16 +31783,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R11" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S11" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T11" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H12" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I12" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J12" t="n">
         <v>199.1525309778227</v>
@@ -31844,16 +31844,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L12" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M12" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N12" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O12" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P12" t="n">
         <v>402.5209086724128</v>
@@ -31868,7 +31868,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T12" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U12" t="n">
         <v>0.138679168314718</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H13" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I13" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J13" t="n">
         <v>124.9418978691339</v>
@@ -31929,10 +31929,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N13" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O13" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P13" t="n">
         <v>213.7362748168904</v>
@@ -31947,10 +31947,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T13" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32005,13 +32005,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M14" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N14" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O14" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P14" t="n">
         <v>566.5332534076744</v>
@@ -32020,16 +32020,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R14" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S14" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T14" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H15" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I15" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J15" t="n">
         <v>199.1525309778227</v>
@@ -32081,16 +32081,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L15" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M15" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N15" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O15" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P15" t="n">
         <v>402.5209086724128</v>
@@ -32105,7 +32105,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T15" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U15" t="n">
         <v>0.138679168314718</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H16" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I16" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J16" t="n">
         <v>124.9418978691339</v>
@@ -32166,10 +32166,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N16" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O16" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P16" t="n">
         <v>213.7362748168904</v>
@@ -32184,10 +32184,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T16" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32242,13 +32242,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M17" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N17" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O17" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P17" t="n">
         <v>566.5332534076744</v>
@@ -32257,16 +32257,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R17" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S17" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T17" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H18" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I18" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J18" t="n">
         <v>199.1525309778227</v>
@@ -32318,16 +32318,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L18" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M18" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N18" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O18" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P18" t="n">
         <v>402.5209086724128</v>
@@ -32342,7 +32342,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T18" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U18" t="n">
         <v>0.138679168314718</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H19" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I19" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J19" t="n">
         <v>124.9418978691339</v>
@@ -32403,10 +32403,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N19" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O19" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P19" t="n">
         <v>213.7362748168904</v>
@@ -32421,10 +32421,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T19" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,13 +32479,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M20" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N20" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O20" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P20" t="n">
         <v>566.5332534076744</v>
@@ -32494,16 +32494,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R20" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S20" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T20" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H21" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I21" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J21" t="n">
         <v>199.1525309778227</v>
@@ -32555,16 +32555,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L21" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M21" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N21" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O21" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P21" t="n">
         <v>402.5209086724128</v>
@@ -32579,7 +32579,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T21" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U21" t="n">
         <v>0.138679168314718</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H22" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I22" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J22" t="n">
         <v>124.9418978691339</v>
@@ -32640,10 +32640,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N22" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O22" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P22" t="n">
         <v>213.7362748168904</v>
@@ -32658,10 +32658,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T22" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32716,13 +32716,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M23" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N23" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O23" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P23" t="n">
         <v>566.5332534076744</v>
@@ -32731,16 +32731,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R23" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S23" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T23" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H24" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I24" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J24" t="n">
         <v>199.1525309778227</v>
@@ -32792,16 +32792,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L24" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M24" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N24" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O24" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P24" t="n">
         <v>402.5209086724128</v>
@@ -32816,7 +32816,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T24" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U24" t="n">
         <v>0.138679168314718</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H25" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I25" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J25" t="n">
         <v>124.9418978691339</v>
@@ -32877,10 +32877,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N25" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O25" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P25" t="n">
         <v>213.7362748168904</v>
@@ -32895,10 +32895,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T25" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32953,13 +32953,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M26" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N26" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O26" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P26" t="n">
         <v>566.5332534076744</v>
@@ -32968,16 +32968,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R26" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S26" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T26" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H27" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I27" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J27" t="n">
         <v>199.1525309778227</v>
@@ -33029,16 +33029,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L27" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M27" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N27" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O27" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P27" t="n">
         <v>402.5209086724128</v>
@@ -33053,7 +33053,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T27" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U27" t="n">
         <v>0.138679168314718</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H28" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I28" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J28" t="n">
         <v>124.9418978691339</v>
@@ -33114,10 +33114,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N28" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O28" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P28" t="n">
         <v>213.7362748168904</v>
@@ -33132,10 +33132,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T28" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33190,13 +33190,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M29" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N29" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O29" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P29" t="n">
         <v>566.5332534076744</v>
@@ -33205,16 +33205,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R29" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S29" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T29" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H30" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I30" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J30" t="n">
         <v>199.1525309778227</v>
@@ -33266,16 +33266,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L30" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M30" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N30" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O30" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P30" t="n">
         <v>402.5209086724128</v>
@@ -33290,7 +33290,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T30" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U30" t="n">
         <v>0.138679168314718</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H31" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I31" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J31" t="n">
         <v>124.9418978691339</v>
@@ -33351,10 +33351,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N31" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O31" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P31" t="n">
         <v>213.7362748168904</v>
@@ -33369,10 +33369,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T31" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33427,13 +33427,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M32" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N32" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O32" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P32" t="n">
         <v>566.5332534076744</v>
@@ -33442,16 +33442,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R32" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S32" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T32" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H33" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I33" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J33" t="n">
         <v>199.1525309778227</v>
@@ -33503,16 +33503,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L33" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M33" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N33" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O33" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P33" t="n">
         <v>402.5209086724128</v>
@@ -33527,7 +33527,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T33" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U33" t="n">
         <v>0.138679168314718</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H34" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I34" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J34" t="n">
         <v>124.9418978691339</v>
@@ -33588,10 +33588,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N34" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O34" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P34" t="n">
         <v>213.7362748168904</v>
@@ -33606,10 +33606,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T34" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33664,13 +33664,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M35" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N35" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O35" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P35" t="n">
         <v>566.5332534076744</v>
@@ -33679,16 +33679,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R35" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S35" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T35" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H36" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I36" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J36" t="n">
         <v>199.1525309778227</v>
@@ -33740,16 +33740,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L36" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M36" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N36" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O36" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P36" t="n">
         <v>402.5209086724128</v>
@@ -33764,7 +33764,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T36" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U36" t="n">
         <v>0.138679168314718</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H37" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I37" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J37" t="n">
         <v>124.9418978691339</v>
@@ -33825,10 +33825,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N37" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O37" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P37" t="n">
         <v>213.7362748168904</v>
@@ -33843,10 +33843,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T37" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33901,13 +33901,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M38" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N38" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O38" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P38" t="n">
         <v>566.5332534076744</v>
@@ -33916,16 +33916,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R38" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S38" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T38" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H39" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I39" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J39" t="n">
         <v>199.1525309778227</v>
@@ -33977,16 +33977,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L39" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M39" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N39" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O39" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P39" t="n">
         <v>402.5209086724128</v>
@@ -34001,7 +34001,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T39" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U39" t="n">
         <v>0.138679168314718</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H40" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I40" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J40" t="n">
         <v>124.9418978691339</v>
@@ -34062,10 +34062,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N40" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O40" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P40" t="n">
         <v>213.7362748168904</v>
@@ -34080,10 +34080,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T40" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34138,13 +34138,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M41" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N41" t="n">
-        <v>702.9698611011022</v>
+        <v>702.9698611011021</v>
       </c>
       <c r="O41" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593869</v>
       </c>
       <c r="P41" t="n">
         <v>566.5332534076744</v>
@@ -34153,16 +34153,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R41" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S41" t="n">
-        <v>89.77582957051753</v>
+        <v>89.77582957051752</v>
       </c>
       <c r="T41" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H42" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I42" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J42" t="n">
         <v>199.1525309778227</v>
@@ -34214,16 +34214,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L42" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280076</v>
       </c>
       <c r="M42" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N42" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O42" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P42" t="n">
         <v>402.5209086724128</v>
@@ -34238,7 +34238,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T42" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U42" t="n">
         <v>0.138679168314718</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H43" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I43" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J43" t="n">
         <v>124.9418978691339</v>
@@ -34299,10 +34299,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N43" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O43" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P43" t="n">
         <v>213.7362748168904</v>
@@ -34317,10 +34317,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T43" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354368</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.939696305892153</v>
+        <v>3.939696305892152</v>
       </c>
       <c r="H44" t="n">
-        <v>40.34741479271802</v>
+        <v>40.34741479271801</v>
       </c>
       <c r="I44" t="n">
         <v>151.8851418329074</v>
       </c>
       <c r="J44" t="n">
-        <v>334.3767993422144</v>
+        <v>334.3767993422143</v>
       </c>
       <c r="K44" t="n">
-        <v>501.1441439706293</v>
+        <v>501.1441439706292</v>
       </c>
       <c r="L44" t="n">
-        <v>621.7136247920764</v>
+        <v>621.7136247920763</v>
       </c>
       <c r="M44" t="n">
-        <v>691.776198971986</v>
+        <v>691.7761989719859</v>
       </c>
       <c r="N44" t="n">
-        <v>702.9698611011022</v>
+        <v>702.969861101102</v>
       </c>
       <c r="O44" t="n">
-        <v>663.794505959387</v>
+        <v>663.7945059593868</v>
       </c>
       <c r="P44" t="n">
-        <v>566.5332534076744</v>
+        <v>566.5332534076742</v>
       </c>
       <c r="Q44" t="n">
-        <v>425.4428794529115</v>
+        <v>425.4428794529114</v>
       </c>
       <c r="R44" t="n">
-        <v>247.4769480749982</v>
+        <v>247.4769480749981</v>
       </c>
       <c r="S44" t="n">
-        <v>89.77582957051753</v>
+        <v>89.7758295705175</v>
       </c>
       <c r="T44" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3151757044713722</v>
+        <v>0.3151757044713721</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,34 +34439,34 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H45" t="n">
-        <v>20.35810190860061</v>
+        <v>20.3581019086006</v>
       </c>
       <c r="I45" t="n">
-        <v>72.57543141803576</v>
+        <v>72.57543141803575</v>
       </c>
       <c r="J45" t="n">
         <v>199.1525309778227</v>
       </c>
       <c r="K45" t="n">
-        <v>340.3833959895315</v>
+        <v>340.3833959895314</v>
       </c>
       <c r="L45" t="n">
-        <v>457.6874818280077</v>
+        <v>457.6874818280075</v>
       </c>
       <c r="M45" t="n">
-        <v>534.0997035694171</v>
+        <v>534.099703569417</v>
       </c>
       <c r="N45" t="n">
-        <v>548.2357334596309</v>
+        <v>548.2357334596308</v>
       </c>
       <c r="O45" t="n">
-        <v>501.5285895712338</v>
+        <v>501.5285895712337</v>
       </c>
       <c r="P45" t="n">
         <v>402.5209086724128</v>
       </c>
       <c r="Q45" t="n">
-        <v>269.0745676421035</v>
+        <v>269.0745676421034</v>
       </c>
       <c r="R45" t="n">
         <v>130.8761537775432</v>
@@ -34475,7 +34475,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T45" t="n">
-        <v>8.496410378748386</v>
+        <v>8.496410378748385</v>
       </c>
       <c r="U45" t="n">
         <v>0.138679168314718</v>
@@ -34515,31 +34515,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.767212133934002</v>
+        <v>1.767212133934001</v>
       </c>
       <c r="H46" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I46" t="n">
-        <v>53.14488853685163</v>
+        <v>53.14488853685162</v>
       </c>
       <c r="J46" t="n">
         <v>124.9418978691339</v>
       </c>
       <c r="K46" t="n">
-        <v>205.3179188334231</v>
+        <v>205.317918833423</v>
       </c>
       <c r="L46" t="n">
         <v>262.7362476214242</v>
       </c>
       <c r="M46" t="n">
-        <v>277.0185347765817</v>
+        <v>277.0185347765816</v>
       </c>
       <c r="N46" t="n">
-        <v>270.4316531864643</v>
+        <v>270.4316531864642</v>
       </c>
       <c r="O46" t="n">
-        <v>249.7874023491443</v>
+        <v>249.7874023491442</v>
       </c>
       <c r="P46" t="n">
         <v>213.7362748168904</v>
@@ -34548,16 +34548,16 @@
         <v>147.9799178696917</v>
       </c>
       <c r="R46" t="n">
-        <v>79.46028376761427</v>
+        <v>79.46028376761426</v>
       </c>
       <c r="S46" t="n">
         <v>30.79768782501345</v>
       </c>
       <c r="T46" t="n">
-        <v>7.550815481354369</v>
+        <v>7.550815481354367</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09639338912367293</v>
+        <v>0.09639338912367292</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>322.4275099876019</v>
       </c>
       <c r="K11" t="n">
-        <v>281.0542929256488</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L11" t="n">
-        <v>676.2915097988856</v>
+        <v>385.9472098220892</v>
       </c>
       <c r="M11" t="n">
-        <v>910.9434992375458</v>
+        <v>910.9434992375457</v>
       </c>
       <c r="N11" t="n">
-        <v>910.9037219164954</v>
+        <v>910.9037219164953</v>
       </c>
       <c r="O11" t="n">
-        <v>814.4964758004456</v>
+        <v>814.4964758004455</v>
       </c>
       <c r="P11" t="n">
-        <v>335.3002576524048</v>
+        <v>513.8141357179416</v>
       </c>
       <c r="Q11" t="n">
-        <v>415.4521802383667</v>
+        <v>203.137189578462</v>
       </c>
       <c r="R11" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>198.4059396515649</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K12" t="n">
-        <v>236.5787760728325</v>
+        <v>202.5419570151725</v>
       </c>
       <c r="L12" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M12" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N12" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P12" t="n">
-        <v>268.5465012580826</v>
+        <v>271.8650006908434</v>
       </c>
       <c r="Q12" t="n">
         <v>339.1700812919311</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>30.7183196249001</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.58271775246114</v>
+        <v>31.58271775246112</v>
       </c>
       <c r="K13" t="n">
         <v>183.0484270075402</v>
@@ -35577,7 +35577,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N13" t="n">
-        <v>314.5638255656929</v>
+        <v>314.5638255656928</v>
       </c>
       <c r="O13" t="n">
         <v>274.3725302631839</v>
@@ -35586,7 +35586,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.81787461799736</v>
+        <v>61.81787461799733</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,16 +35650,16 @@
         <v>605.1997054968135</v>
       </c>
       <c r="L14" t="n">
-        <v>803.6084243725396</v>
+        <v>385.9472098220892</v>
       </c>
       <c r="M14" t="n">
-        <v>461.4299657447133</v>
+        <v>555.3436784716951</v>
       </c>
       <c r="N14" t="n">
-        <v>587.1562200930274</v>
+        <v>910.9037219164953</v>
       </c>
       <c r="O14" t="n">
-        <v>814.4964758004456</v>
+        <v>814.4964758004455</v>
       </c>
       <c r="P14" t="n">
         <v>657.0989658238875</v>
@@ -35668,7 +35668,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R14" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>198.4059396515649</v>
+        <v>72.314904311156</v>
       </c>
       <c r="K15" t="n">
-        <v>236.5787760728325</v>
+        <v>362.6698114132422</v>
       </c>
       <c r="L15" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M15" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N15" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P15" t="n">
-        <v>268.5465012580826</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q15" t="n">
         <v>339.1700812919311</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.58271775246114</v>
+        <v>31.58271775246112</v>
       </c>
       <c r="K16" t="n">
         <v>183.0484270075402</v>
@@ -35814,7 +35814,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N16" t="n">
-        <v>314.5638255656929</v>
+        <v>314.5638255656928</v>
       </c>
       <c r="O16" t="n">
         <v>274.3725302631839</v>
@@ -35823,7 +35823,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.81787461799736</v>
+        <v>61.81787461799733</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>803.6084243725396</v>
       </c>
       <c r="M17" t="n">
-        <v>461.4299657447133</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N17" t="n">
-        <v>587.1562200930274</v>
+        <v>587.1562200930269</v>
       </c>
       <c r="O17" t="n">
-        <v>814.4964758004456</v>
+        <v>814.4964758004455</v>
       </c>
       <c r="P17" t="n">
         <v>657.0989658238875</v>
@@ -35905,7 +35905,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R17" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>198.4059396515649</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K18" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L18" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M18" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N18" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P18" t="n">
-        <v>271.865000690843</v>
+        <v>271.8650006908434</v>
       </c>
       <c r="Q18" t="n">
         <v>339.1700812919311</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.58271775246114</v>
+        <v>31.58271775246112</v>
       </c>
       <c r="K19" t="n">
         <v>183.0484270075402</v>
@@ -36051,7 +36051,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N19" t="n">
-        <v>314.5638255656929</v>
+        <v>314.5638255656928</v>
       </c>
       <c r="O19" t="n">
         <v>274.3725302631839</v>
@@ -36060,7 +36060,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.81787461799736</v>
+        <v>61.81787461799733</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>605.1997054968135</v>
       </c>
       <c r="L20" t="n">
-        <v>803.6084243725396</v>
+        <v>411.1475703189838</v>
       </c>
       <c r="M20" t="n">
-        <v>575.0293883332293</v>
+        <v>910.9434992375457</v>
       </c>
       <c r="N20" t="n">
-        <v>473.5567975045113</v>
+        <v>910.9037219164953</v>
       </c>
       <c r="O20" t="n">
-        <v>814.4964758004456</v>
+        <v>433.6962945377002</v>
       </c>
       <c r="P20" t="n">
         <v>657.0989658238875</v>
@@ -36142,7 +36142,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R20" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>72.31490431115603</v>
+        <v>72.314904311156</v>
       </c>
       <c r="K21" t="n">
         <v>467.0071940277511</v>
       </c>
       <c r="L21" t="n">
-        <v>424.8730071694731</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M21" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N21" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O21" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P21" t="n">
-        <v>268.5465012580826</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q21" t="n">
-        <v>129.092793556082</v>
+        <v>234.8326986774222</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.58271775246114</v>
+        <v>31.58271775246112</v>
       </c>
       <c r="K22" t="n">
         <v>183.0484270075402</v>
@@ -36288,7 +36288,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N22" t="n">
-        <v>314.5638255656929</v>
+        <v>314.5638255656928</v>
       </c>
       <c r="O22" t="n">
         <v>274.3725302631839</v>
@@ -36297,7 +36297,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.81787461799736</v>
+        <v>61.81787461799733</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>322.4275099876019</v>
       </c>
       <c r="K23" t="n">
-        <v>605.1997054968135</v>
+        <v>366.0523690118994</v>
       </c>
       <c r="L23" t="n">
         <v>803.6084243725396</v>
       </c>
       <c r="M23" t="n">
-        <v>461.4299657447133</v>
+        <v>910.9434992375457</v>
       </c>
       <c r="N23" t="n">
-        <v>587.1562200930274</v>
+        <v>910.9037219164953</v>
       </c>
       <c r="O23" t="n">
-        <v>814.4964758004456</v>
+        <v>814.4964758004455</v>
       </c>
       <c r="P23" t="n">
-        <v>657.0989658238875</v>
+        <v>335.3002576524048</v>
       </c>
       <c r="Q23" t="n">
-        <v>415.4521802383667</v>
+        <v>203.137189578462</v>
       </c>
       <c r="R23" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>198.4059396515649</v>
+        <v>72.314904311156</v>
       </c>
       <c r="K24" t="n">
-        <v>205.8604564479326</v>
+        <v>362.6698114132422</v>
       </c>
       <c r="L24" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M24" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N24" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O24" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P24" t="n">
-        <v>268.5465012580826</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q24" t="n">
         <v>339.1700812919311</v>
       </c>
       <c r="R24" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.58271775246114</v>
+        <v>31.58271775246112</v>
       </c>
       <c r="K25" t="n">
         <v>183.0484270075402</v>
@@ -36525,7 +36525,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N25" t="n">
-        <v>314.5638255656929</v>
+        <v>314.5638255656928</v>
       </c>
       <c r="O25" t="n">
         <v>274.3725302631839</v>
@@ -36534,7 +36534,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.81787461799736</v>
+        <v>61.81787461799733</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>153.3308948155282</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K26" t="n">
-        <v>600.8654040569555</v>
+        <v>281.0542929256487</v>
       </c>
       <c r="L26" t="n">
         <v>803.6084243725396</v>
       </c>
       <c r="M26" t="n">
-        <v>910.9434992375458</v>
+        <v>910.9434992375457</v>
       </c>
       <c r="N26" t="n">
-        <v>910.9037219164954</v>
+        <v>910.9037219164953</v>
       </c>
       <c r="O26" t="n">
-        <v>814.4964758004456</v>
+        <v>814.4964758004455</v>
       </c>
       <c r="P26" t="n">
         <v>335.3002576524048</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.1371895784621</v>
+        <v>288.1352656647111</v>
       </c>
       <c r="R26" t="n">
-        <v>31.89141026086605</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>198.4059396515649</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K27" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L27" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M27" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N27" t="n">
-        <v>420.2125208090579</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O27" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P27" t="n">
-        <v>268.5465012580826</v>
+        <v>271.8650006908434</v>
       </c>
       <c r="Q27" t="n">
         <v>339.1700812919311</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.58271775246114</v>
+        <v>31.58271775246112</v>
       </c>
       <c r="K28" t="n">
         <v>183.0484270075402</v>
@@ -36762,7 +36762,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N28" t="n">
-        <v>314.5638255656929</v>
+        <v>314.5638255656928</v>
       </c>
       <c r="O28" t="n">
         <v>274.3725302631839</v>
@@ -36771,7 +36771,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.81787461799736</v>
+        <v>61.81787461799733</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>153.3308948155282</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K29" t="n">
-        <v>418.6964999030359</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L29" t="n">
-        <v>385.9472098220892</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M29" t="n">
-        <v>910.9434992375458</v>
+        <v>910.9434992375457</v>
       </c>
       <c r="N29" t="n">
-        <v>910.9037219164954</v>
+        <v>473.5567975045112</v>
       </c>
       <c r="O29" t="n">
-        <v>814.4964758004456</v>
+        <v>478.5823648961285</v>
       </c>
       <c r="P29" t="n">
         <v>657.0989658238875</v>
@@ -36853,7 +36853,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R29" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>198.4059396515649</v>
+        <v>72.314904311156</v>
       </c>
       <c r="K30" t="n">
-        <v>205.8604564479326</v>
+        <v>467.0071940277511</v>
       </c>
       <c r="L30" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M30" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N30" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O30" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P30" t="n">
-        <v>268.5465012580826</v>
+        <v>374.2864063794224</v>
       </c>
       <c r="Q30" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R30" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.58271775246114</v>
+        <v>31.58271775246112</v>
       </c>
       <c r="K31" t="n">
         <v>183.0484270075402</v>
@@ -36999,7 +36999,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N31" t="n">
-        <v>314.5638255656929</v>
+        <v>314.5638255656928</v>
       </c>
       <c r="O31" t="n">
         <v>274.3725302631839</v>
@@ -37008,7 +37008,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.81787461799736</v>
+        <v>61.81787461799733</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>153.3308948155282</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K32" t="n">
         <v>605.1997054968135</v>
@@ -37075,22 +37075,22 @@
         <v>803.6084243725396</v>
       </c>
       <c r="M32" t="n">
-        <v>519.0940697532227</v>
+        <v>575.0293883332289</v>
       </c>
       <c r="N32" t="n">
-        <v>910.9037219164954</v>
+        <v>473.5567975045112</v>
       </c>
       <c r="O32" t="n">
-        <v>814.4964758004456</v>
+        <v>814.4964758004455</v>
       </c>
       <c r="P32" t="n">
         <v>657.0989658238875</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.1371895784621</v>
+        <v>415.4521802383667</v>
       </c>
       <c r="R32" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>198.4059396515649</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K33" t="n">
-        <v>205.8604564479326</v>
+        <v>202.5419570151725</v>
       </c>
       <c r="L33" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M33" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N33" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O33" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P33" t="n">
-        <v>268.5465012580826</v>
+        <v>271.8650006908434</v>
       </c>
       <c r="Q33" t="n">
         <v>339.1700812919311</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.51152122721086</v>
+        <v>87.51152122721084</v>
       </c>
       <c r="K34" t="n">
-        <v>238.97723048229</v>
+        <v>238.9772304822899</v>
       </c>
       <c r="L34" t="n">
         <v>346.2550763564901</v>
@@ -37236,7 +37236,7 @@
         <v>372.531215213172</v>
       </c>
       <c r="N34" t="n">
-        <v>370.4926290404426</v>
+        <v>370.4926290404425</v>
       </c>
       <c r="O34" t="n">
         <v>330.3013337379336</v>
@@ -37245,7 +37245,7 @@
         <v>266.9436375565336</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.7466780927471</v>
+        <v>117.746678092747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>322.4275099876019</v>
       </c>
       <c r="K35" t="n">
-        <v>605.1997054968135</v>
+        <v>281.0542929256487</v>
       </c>
       <c r="L35" t="n">
-        <v>442.0422572603819</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M35" t="n">
-        <v>461.4299657447133</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N35" t="n">
-        <v>473.5567975045113</v>
+        <v>473.5567975045112</v>
       </c>
       <c r="O35" t="n">
-        <v>433.6962945377003</v>
+        <v>433.6962945377002</v>
       </c>
       <c r="P35" t="n">
-        <v>657.0989658238875</v>
+        <v>619.6782112828948</v>
       </c>
       <c r="Q35" t="n">
         <v>415.4521802383667</v>
       </c>
       <c r="R35" t="n">
-        <v>97.60783013384849</v>
+        <v>97.60783013384847</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.31490431115603</v>
+        <v>72.314904311156</v>
       </c>
       <c r="K36" t="n">
-        <v>202.5419570151725</v>
+        <v>362.6698114132424</v>
       </c>
       <c r="L36" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M36" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N36" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O36" t="n">
-        <v>729.1374872607078</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P36" t="n">
-        <v>268.5465012580826</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q36" t="n">
-        <v>129.092793556082</v>
+        <v>339.1700812919311</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.51152122721086</v>
+        <v>87.51152122721088</v>
       </c>
       <c r="K37" t="n">
-        <v>238.97723048229</v>
+        <v>238.9772304822899</v>
       </c>
       <c r="L37" t="n">
         <v>346.2550763564901</v>
       </c>
       <c r="M37" t="n">
-        <v>372.531215213172</v>
+        <v>372.5312152131721</v>
       </c>
       <c r="N37" t="n">
         <v>370.4926290404426</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>322.4275099876019</v>
+        <v>153.3308948155281</v>
       </c>
       <c r="K38" t="n">
-        <v>602.2932798438435</v>
+        <v>478.4465734297119</v>
       </c>
       <c r="L38" t="n">
-        <v>385.9472098220892</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M38" t="n">
-        <v>461.4299657447133</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N38" t="n">
-        <v>473.5567975045113</v>
+        <v>473.5567975045112</v>
       </c>
       <c r="O38" t="n">
-        <v>814.4964758004456</v>
+        <v>433.6962945377002</v>
       </c>
       <c r="P38" t="n">
-        <v>335.3002576524048</v>
+        <v>657.0989658238875</v>
       </c>
       <c r="Q38" t="n">
         <v>415.4521802383667</v>
       </c>
       <c r="R38" t="n">
-        <v>97.60783013384849</v>
+        <v>31.89141026086602</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>198.4059396515649</v>
+        <v>72.314904311156</v>
       </c>
       <c r="K39" t="n">
-        <v>236.5787760728328</v>
+        <v>467.0071940277511</v>
       </c>
       <c r="L39" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M39" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N39" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O39" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P39" t="n">
-        <v>268.5465012580826</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q39" t="n">
-        <v>339.1700812919311</v>
+        <v>234.8326986774222</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>87.51152122721086</v>
       </c>
       <c r="K40" t="n">
-        <v>238.97723048229</v>
+        <v>238.9772304822899</v>
       </c>
       <c r="L40" t="n">
         <v>346.2550763564901</v>
@@ -37786,22 +37786,22 @@
         <v>385.9472098220892</v>
       </c>
       <c r="M41" t="n">
-        <v>461.4299657447133</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N41" t="n">
-        <v>473.5567975045113</v>
+        <v>473.5567975045112</v>
       </c>
       <c r="O41" t="n">
-        <v>814.4964758004456</v>
+        <v>555.5077618489752</v>
       </c>
       <c r="P41" t="n">
-        <v>544.7088226593394</v>
+        <v>657.0989658238875</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.1371895784621</v>
+        <v>415.4521802383667</v>
       </c>
       <c r="R41" t="n">
-        <v>97.60783013384849</v>
+        <v>31.89141026086602</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>198.4059396515649</v>
+        <v>72.314904311156</v>
       </c>
       <c r="K42" t="n">
-        <v>202.5419570151725</v>
+        <v>362.6698114132424</v>
       </c>
       <c r="L42" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M42" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N42" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O42" t="n">
-        <v>362.2508445595497</v>
+        <v>358.9323451267893</v>
       </c>
       <c r="P42" t="n">
-        <v>268.5465012580826</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q42" t="n">
         <v>339.1700812919311</v>
       </c>
       <c r="R42" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.51152122721084</v>
+        <v>87.51152122721086</v>
       </c>
       <c r="K43" t="n">
         <v>238.9772304822899</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>153.3308948155282</v>
+        <v>322.4275099876018</v>
       </c>
       <c r="K44" t="n">
-        <v>281.0542929256488</v>
+        <v>281.0542929256487</v>
       </c>
       <c r="L44" t="n">
-        <v>385.9472098220892</v>
+        <v>385.9472098220891</v>
       </c>
       <c r="M44" t="n">
-        <v>910.9434992375458</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N44" t="n">
-        <v>910.9037219164954</v>
+        <v>794.7957844227066</v>
       </c>
       <c r="O44" t="n">
-        <v>433.6962945377003</v>
+        <v>814.4964758004454</v>
       </c>
       <c r="P44" t="n">
-        <v>335.3002576524048</v>
+        <v>335.3002576524047</v>
       </c>
       <c r="Q44" t="n">
-        <v>415.4521802383667</v>
+        <v>415.4521802383666</v>
       </c>
       <c r="R44" t="n">
-        <v>81.88315558204567</v>
+        <v>97.60783013384844</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>198.4059396515649</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K45" t="n">
-        <v>202.5419570151725</v>
+        <v>205.8604564479338</v>
       </c>
       <c r="L45" t="n">
-        <v>319.1331020481335</v>
+        <v>319.1331020481334</v>
       </c>
       <c r="M45" t="n">
-        <v>391.9656696473988</v>
+        <v>391.9656696473987</v>
       </c>
       <c r="N45" t="n">
-        <v>416.8940213762976</v>
+        <v>416.8940213762975</v>
       </c>
       <c r="O45" t="n">
-        <v>358.9323451267894</v>
+        <v>358.9323451267892</v>
       </c>
       <c r="P45" t="n">
-        <v>271.865000690843</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.1700812919311</v>
+        <v>339.170081291931</v>
       </c>
       <c r="R45" t="n">
-        <v>30.7183196249001</v>
+        <v>30.71831962490008</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.51152122721086</v>
+        <v>87.51152122721088</v>
       </c>
       <c r="K46" t="n">
-        <v>238.97723048229</v>
+        <v>238.9772304822899</v>
       </c>
       <c r="L46" t="n">
         <v>346.2550763564901</v>
